--- a/src/data/LEADERBOARD.xlsx
+++ b/src/data/LEADERBOARD.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="141">
   <si>
     <t>HELP FOR ADDING A NEW SYSTEM/PAPER TO THE LEADERBOARD</t>
   </si>
@@ -180,6 +180,9 @@
     <t>https://github.com/dumitrescustefan/ronec</t>
   </si>
   <si>
+    <t>MIT</t>
+  </si>
+  <si>
     <t>Tokenization</t>
   </si>
   <si>
@@ -193,6 +196,12 @@
     <t>https://universaldependencies.org/</t>
   </si>
   <si>
+    <t>CC BY-SA 4.0</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-sa/4.0/</t>
+  </si>
+  <si>
     <t>Sentence Segmentation</t>
   </si>
   <si>
@@ -201,6 +210,9 @@
 For more details regarding the CoNLL-U format please see &lt;a href="https://universaldependencies.org/format.html"&gt;https://universaldependencies.org/format.html&lt;/a&gt;.&lt;br&gt;
 For evaluation please generate a CoNLL-U format text file and evaluate it with the python script avaliable &lt;a href="http://universaldependencies.org/conll18/evaluation.html"&gt;here&lt;/a&gt;.&lt;br&gt;&lt;br&gt;
 Please note that the UD Romanian RRT Treebank contains several subtasks in a single file. Here, we are interested only in &lt;b&gt;sentence segmentation&lt;/b&gt;.  Your submitted system should start with the raw text file and output a CoNLL-U file. Please report only the &lt;b&gt;sentence segmentation&lt;/b&gt; F1, Precision and Recall scores.</t>
+  </si>
+  <si>
+    <t>CC BY-SA 4.1</t>
   </si>
   <si>
     <t>Lemmatization</t>
@@ -214,6 +226,9 @@
 Please report only F1, Precision and Recall scores.</t>
   </si>
   <si>
+    <t>CC BY-SA 4.2</t>
+  </si>
+  <si>
     <t>POS Tagging</t>
   </si>
   <si>
@@ -225,6 +240,9 @@
 Please report only F1, Precision and Recall scores.</t>
   </si>
   <si>
+    <t>CC BY-SA 4.3</t>
+  </si>
+  <si>
     <t>Dependency Parsing</t>
   </si>
   <si>
@@ -234,6 +252,9 @@
 For evaluation please generate a CoNLL-U format text file and evaluate it with the python script avaliable &lt;a href="http://universaldependencies.org/conll18/evaluation.html"&gt;here&lt;/a&gt;.&lt;br&gt;&lt;br&gt;
 Please note that the UD Romanian RRT Treebank contains several subtasks in a single file. Here, we are interested only in &lt;b&gt;dependency parsing&lt;/b&gt;. Your submitted system should start with the CoNLL-U test file to ensure gold word tokenization and sentence segmentation and output a CoNLL-U file, with the appropriate columns filled in (head and deps). All other fields can be left empty (marked with the '_' underline). If your system performs end-to-end processing (i.e. starts from raw text, segments sentences, tokenizes, etc, up to the current task, please mark it as such by appending to its name &lt;b&gt;[end-to-end]&lt;/b&gt;).
 Please report only F1, Precision and Recall scores.</t>
+  </si>
+  <si>
+    <t>CC BY-SA 4.4</t>
   </si>
   <si>
     <t>AREA</t>
@@ -513,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -554,6 +575,9 @@
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
@@ -10509,4155 +10533,4188 @@
       <c r="E2" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="F2" s="17" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="F3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="F4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="F5" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="F6" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="F7" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="10"/>
-      <c r="C8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9">
       <c r="A9" s="10"/>
-      <c r="C9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10">
       <c r="A10" s="10"/>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11">
       <c r="A11" s="10"/>
-      <c r="C11" s="17"/>
+      <c r="C11" s="18"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12">
       <c r="A12" s="10"/>
-      <c r="C12" s="17"/>
+      <c r="C12" s="18"/>
       <c r="E12" s="10"/>
     </row>
     <row r="13">
       <c r="A13" s="10"/>
-      <c r="C13" s="17"/>
+      <c r="C13" s="18"/>
       <c r="E13" s="10"/>
     </row>
     <row r="14">
       <c r="A14" s="10"/>
-      <c r="C14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="E14" s="10"/>
     </row>
     <row r="15">
       <c r="A15" s="10"/>
-      <c r="C15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="E15" s="10"/>
     </row>
     <row r="16">
       <c r="A16" s="10"/>
-      <c r="C16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="E16" s="10"/>
     </row>
     <row r="17">
       <c r="A17" s="10"/>
-      <c r="C17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="E17" s="10"/>
     </row>
     <row r="18">
       <c r="A18" s="10"/>
-      <c r="C18" s="17"/>
+      <c r="C18" s="18"/>
       <c r="E18" s="10"/>
     </row>
     <row r="19">
       <c r="A19" s="10"/>
-      <c r="C19" s="17"/>
+      <c r="C19" s="18"/>
       <c r="E19" s="10"/>
     </row>
     <row r="20">
       <c r="A20" s="10"/>
-      <c r="C20" s="17"/>
+      <c r="C20" s="18"/>
       <c r="E20" s="10"/>
     </row>
     <row r="21">
       <c r="A21" s="10"/>
-      <c r="C21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="E21" s="10"/>
     </row>
     <row r="22">
       <c r="A22" s="10"/>
-      <c r="C22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="E22" s="10"/>
     </row>
     <row r="23">
       <c r="A23" s="10"/>
-      <c r="C23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="E23" s="10"/>
     </row>
     <row r="24">
       <c r="A24" s="10"/>
-      <c r="C24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="E24" s="10"/>
     </row>
     <row r="25">
       <c r="A25" s="10"/>
-      <c r="C25" s="17"/>
+      <c r="C25" s="18"/>
       <c r="E25" s="10"/>
     </row>
     <row r="26">
       <c r="A26" s="10"/>
-      <c r="C26" s="17"/>
+      <c r="C26" s="18"/>
       <c r="E26" s="10"/>
     </row>
     <row r="27">
       <c r="A27" s="10"/>
-      <c r="C27" s="17"/>
+      <c r="C27" s="18"/>
       <c r="E27" s="10"/>
     </row>
     <row r="28">
       <c r="A28" s="10"/>
-      <c r="C28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="E28" s="10"/>
     </row>
     <row r="29">
       <c r="A29" s="10"/>
-      <c r="C29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="E29" s="10"/>
     </row>
     <row r="30">
       <c r="A30" s="10"/>
-      <c r="C30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="E30" s="10"/>
     </row>
     <row r="31">
       <c r="A31" s="10"/>
-      <c r="C31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="E31" s="10"/>
     </row>
     <row r="32">
       <c r="A32" s="10"/>
-      <c r="C32" s="17"/>
+      <c r="C32" s="18"/>
       <c r="E32" s="10"/>
     </row>
     <row r="33">
       <c r="A33" s="10"/>
-      <c r="C33" s="17"/>
+      <c r="C33" s="18"/>
       <c r="E33" s="10"/>
     </row>
     <row r="34">
       <c r="A34" s="10"/>
-      <c r="C34" s="17"/>
+      <c r="C34" s="18"/>
       <c r="E34" s="10"/>
     </row>
     <row r="35">
       <c r="A35" s="10"/>
-      <c r="C35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="E35" s="10"/>
     </row>
     <row r="36">
       <c r="A36" s="10"/>
-      <c r="C36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="E36" s="10"/>
     </row>
     <row r="37">
       <c r="A37" s="10"/>
-      <c r="C37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="E37" s="10"/>
     </row>
     <row r="38">
       <c r="A38" s="10"/>
-      <c r="C38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="E38" s="10"/>
     </row>
     <row r="39">
       <c r="A39" s="10"/>
-      <c r="C39" s="17"/>
+      <c r="C39" s="18"/>
       <c r="E39" s="10"/>
     </row>
     <row r="40">
       <c r="A40" s="10"/>
-      <c r="C40" s="17"/>
+      <c r="C40" s="18"/>
       <c r="E40" s="10"/>
     </row>
     <row r="41">
       <c r="A41" s="10"/>
-      <c r="C41" s="17"/>
+      <c r="C41" s="18"/>
       <c r="E41" s="10"/>
     </row>
     <row r="42">
       <c r="A42" s="10"/>
-      <c r="C42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="E42" s="10"/>
     </row>
     <row r="43">
       <c r="A43" s="10"/>
-      <c r="C43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="E43" s="10"/>
     </row>
     <row r="44">
       <c r="A44" s="10"/>
-      <c r="C44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="E44" s="10"/>
     </row>
     <row r="45">
       <c r="A45" s="10"/>
-      <c r="C45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="E45" s="10"/>
     </row>
     <row r="46">
       <c r="A46" s="10"/>
-      <c r="C46" s="17"/>
+      <c r="C46" s="18"/>
       <c r="E46" s="10"/>
     </row>
     <row r="47">
       <c r="A47" s="10"/>
-      <c r="C47" s="17"/>
+      <c r="C47" s="18"/>
       <c r="E47" s="10"/>
     </row>
     <row r="48">
       <c r="A48" s="10"/>
-      <c r="C48" s="17"/>
+      <c r="C48" s="18"/>
       <c r="E48" s="10"/>
     </row>
     <row r="49">
       <c r="A49" s="10"/>
-      <c r="C49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="E49" s="10"/>
     </row>
     <row r="50">
       <c r="A50" s="10"/>
-      <c r="C50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="E50" s="10"/>
     </row>
     <row r="51">
       <c r="A51" s="10"/>
-      <c r="C51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="E51" s="10"/>
     </row>
     <row r="52">
       <c r="A52" s="10"/>
-      <c r="C52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="E52" s="10"/>
     </row>
     <row r="53">
       <c r="A53" s="10"/>
-      <c r="C53" s="17"/>
+      <c r="C53" s="18"/>
       <c r="E53" s="10"/>
     </row>
     <row r="54">
       <c r="A54" s="10"/>
-      <c r="C54" s="17"/>
+      <c r="C54" s="18"/>
       <c r="E54" s="10"/>
     </row>
     <row r="55">
       <c r="A55" s="10"/>
-      <c r="C55" s="17"/>
+      <c r="C55" s="18"/>
       <c r="E55" s="10"/>
     </row>
     <row r="56">
       <c r="A56" s="10"/>
-      <c r="C56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="E56" s="10"/>
     </row>
     <row r="57">
       <c r="A57" s="10"/>
-      <c r="C57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="E57" s="10"/>
     </row>
     <row r="58">
       <c r="A58" s="10"/>
-      <c r="C58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="E58" s="10"/>
     </row>
     <row r="59">
       <c r="A59" s="10"/>
-      <c r="C59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="E59" s="10"/>
     </row>
     <row r="60">
       <c r="A60" s="10"/>
-      <c r="C60" s="17"/>
+      <c r="C60" s="18"/>
       <c r="E60" s="10"/>
     </row>
     <row r="61">
       <c r="A61" s="10"/>
-      <c r="C61" s="17"/>
+      <c r="C61" s="18"/>
       <c r="E61" s="10"/>
     </row>
     <row r="62">
       <c r="A62" s="10"/>
-      <c r="C62" s="17"/>
+      <c r="C62" s="18"/>
       <c r="E62" s="10"/>
     </row>
     <row r="63">
       <c r="A63" s="10"/>
-      <c r="C63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="E63" s="10"/>
     </row>
     <row r="64">
       <c r="A64" s="10"/>
-      <c r="C64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="E64" s="10"/>
     </row>
     <row r="65">
       <c r="A65" s="10"/>
-      <c r="C65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="E65" s="10"/>
     </row>
     <row r="66">
       <c r="A66" s="10"/>
-      <c r="C66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="E66" s="10"/>
     </row>
     <row r="67">
       <c r="A67" s="10"/>
-      <c r="C67" s="17"/>
+      <c r="C67" s="18"/>
       <c r="E67" s="10"/>
     </row>
     <row r="68">
       <c r="A68" s="10"/>
-      <c r="C68" s="17"/>
+      <c r="C68" s="18"/>
       <c r="E68" s="10"/>
     </row>
     <row r="69">
       <c r="A69" s="10"/>
-      <c r="C69" s="17"/>
+      <c r="C69" s="18"/>
       <c r="E69" s="10"/>
     </row>
     <row r="70">
       <c r="A70" s="10"/>
-      <c r="C70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="E70" s="10"/>
     </row>
     <row r="71">
       <c r="A71" s="10"/>
-      <c r="C71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="E71" s="10"/>
     </row>
     <row r="72">
       <c r="A72" s="10"/>
-      <c r="C72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="E72" s="10"/>
     </row>
     <row r="73">
       <c r="A73" s="10"/>
-      <c r="C73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="E73" s="10"/>
     </row>
     <row r="74">
       <c r="A74" s="10"/>
-      <c r="C74" s="17"/>
+      <c r="C74" s="18"/>
       <c r="E74" s="10"/>
     </row>
     <row r="75">
       <c r="A75" s="10"/>
-      <c r="C75" s="17"/>
+      <c r="C75" s="18"/>
       <c r="E75" s="10"/>
     </row>
     <row r="76">
       <c r="A76" s="10"/>
-      <c r="C76" s="17"/>
+      <c r="C76" s="18"/>
       <c r="E76" s="10"/>
     </row>
     <row r="77">
       <c r="A77" s="10"/>
-      <c r="C77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="E77" s="10"/>
     </row>
     <row r="78">
       <c r="A78" s="10"/>
-      <c r="C78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="E78" s="10"/>
     </row>
     <row r="79">
       <c r="A79" s="10"/>
-      <c r="C79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="E79" s="10"/>
     </row>
     <row r="80">
       <c r="A80" s="10"/>
-      <c r="C80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="E80" s="10"/>
     </row>
     <row r="81">
       <c r="A81" s="10"/>
-      <c r="C81" s="17"/>
+      <c r="C81" s="18"/>
       <c r="E81" s="10"/>
     </row>
     <row r="82">
       <c r="A82" s="10"/>
-      <c r="C82" s="17"/>
+      <c r="C82" s="18"/>
       <c r="E82" s="10"/>
     </row>
     <row r="83">
       <c r="A83" s="10"/>
-      <c r="C83" s="17"/>
+      <c r="C83" s="18"/>
       <c r="E83" s="10"/>
     </row>
     <row r="84">
       <c r="A84" s="10"/>
-      <c r="C84" s="17"/>
+      <c r="C84" s="18"/>
       <c r="E84" s="10"/>
     </row>
     <row r="85">
       <c r="A85" s="10"/>
-      <c r="C85" s="17"/>
+      <c r="C85" s="18"/>
       <c r="E85" s="10"/>
     </row>
     <row r="86">
       <c r="A86" s="10"/>
-      <c r="C86" s="17"/>
+      <c r="C86" s="18"/>
       <c r="E86" s="10"/>
     </row>
     <row r="87">
       <c r="A87" s="10"/>
-      <c r="C87" s="17"/>
+      <c r="C87" s="18"/>
       <c r="E87" s="10"/>
     </row>
     <row r="88">
       <c r="A88" s="10"/>
-      <c r="C88" s="17"/>
+      <c r="C88" s="18"/>
       <c r="E88" s="10"/>
     </row>
     <row r="89">
       <c r="A89" s="10"/>
-      <c r="C89" s="17"/>
+      <c r="C89" s="18"/>
       <c r="E89" s="10"/>
     </row>
     <row r="90">
       <c r="A90" s="10"/>
-      <c r="C90" s="17"/>
+      <c r="C90" s="18"/>
       <c r="E90" s="10"/>
     </row>
     <row r="91">
       <c r="A91" s="10"/>
-      <c r="C91" s="17"/>
+      <c r="C91" s="18"/>
       <c r="E91" s="10"/>
     </row>
     <row r="92">
       <c r="A92" s="10"/>
-      <c r="C92" s="17"/>
+      <c r="C92" s="18"/>
       <c r="E92" s="10"/>
     </row>
     <row r="93">
       <c r="A93" s="10"/>
-      <c r="C93" s="17"/>
+      <c r="C93" s="18"/>
       <c r="E93" s="10"/>
     </row>
     <row r="94">
       <c r="A94" s="10"/>
-      <c r="C94" s="17"/>
+      <c r="C94" s="18"/>
       <c r="E94" s="10"/>
     </row>
     <row r="95">
       <c r="A95" s="10"/>
-      <c r="C95" s="17"/>
+      <c r="C95" s="18"/>
       <c r="E95" s="10"/>
     </row>
     <row r="96">
       <c r="A96" s="10"/>
-      <c r="C96" s="17"/>
+      <c r="C96" s="18"/>
       <c r="E96" s="10"/>
     </row>
     <row r="97">
       <c r="A97" s="10"/>
-      <c r="C97" s="17"/>
+      <c r="C97" s="18"/>
       <c r="E97" s="10"/>
     </row>
     <row r="98">
       <c r="A98" s="10"/>
-      <c r="C98" s="17"/>
+      <c r="C98" s="18"/>
       <c r="E98" s="10"/>
     </row>
     <row r="99">
       <c r="A99" s="10"/>
-      <c r="C99" s="17"/>
+      <c r="C99" s="18"/>
       <c r="E99" s="10"/>
     </row>
     <row r="100">
       <c r="A100" s="10"/>
-      <c r="C100" s="17"/>
+      <c r="C100" s="18"/>
       <c r="E100" s="10"/>
     </row>
     <row r="101">
-      <c r="C101" s="17"/>
+      <c r="C101" s="18"/>
       <c r="E101" s="10"/>
     </row>
     <row r="102">
-      <c r="C102" s="17"/>
+      <c r="C102" s="18"/>
       <c r="E102" s="10"/>
     </row>
     <row r="103">
-      <c r="C103" s="17"/>
+      <c r="C103" s="18"/>
       <c r="E103" s="10"/>
     </row>
     <row r="104">
-      <c r="C104" s="17"/>
+      <c r="C104" s="18"/>
       <c r="E104" s="10"/>
     </row>
     <row r="105">
-      <c r="C105" s="17"/>
+      <c r="C105" s="18"/>
       <c r="E105" s="10"/>
     </row>
     <row r="106">
-      <c r="C106" s="17"/>
+      <c r="C106" s="18"/>
       <c r="E106" s="10"/>
     </row>
     <row r="107">
-      <c r="C107" s="17"/>
+      <c r="C107" s="18"/>
       <c r="E107" s="10"/>
     </row>
     <row r="108">
-      <c r="C108" s="17"/>
+      <c r="C108" s="18"/>
       <c r="E108" s="10"/>
     </row>
     <row r="109">
-      <c r="C109" s="17"/>
+      <c r="C109" s="18"/>
       <c r="E109" s="10"/>
     </row>
     <row r="110">
-      <c r="C110" s="17"/>
+      <c r="C110" s="18"/>
       <c r="E110" s="10"/>
     </row>
     <row r="111">
-      <c r="C111" s="17"/>
+      <c r="C111" s="18"/>
       <c r="E111" s="10"/>
     </row>
     <row r="112">
-      <c r="C112" s="17"/>
+      <c r="C112" s="18"/>
       <c r="E112" s="10"/>
     </row>
     <row r="113">
-      <c r="C113" s="17"/>
+      <c r="C113" s="18"/>
       <c r="E113" s="10"/>
     </row>
     <row r="114">
-      <c r="C114" s="17"/>
+      <c r="C114" s="18"/>
       <c r="E114" s="10"/>
     </row>
     <row r="115">
-      <c r="C115" s="17"/>
+      <c r="C115" s="18"/>
       <c r="E115" s="10"/>
     </row>
     <row r="116">
-      <c r="C116" s="17"/>
+      <c r="C116" s="18"/>
       <c r="E116" s="10"/>
     </row>
     <row r="117">
-      <c r="C117" s="17"/>
+      <c r="C117" s="18"/>
       <c r="E117" s="10"/>
     </row>
     <row r="118">
-      <c r="C118" s="17"/>
+      <c r="C118" s="18"/>
       <c r="E118" s="10"/>
     </row>
     <row r="119">
-      <c r="C119" s="17"/>
+      <c r="C119" s="18"/>
       <c r="E119" s="10"/>
     </row>
     <row r="120">
-      <c r="C120" s="17"/>
+      <c r="C120" s="18"/>
       <c r="E120" s="10"/>
     </row>
     <row r="121">
-      <c r="C121" s="17"/>
+      <c r="C121" s="18"/>
       <c r="E121" s="10"/>
     </row>
     <row r="122">
-      <c r="C122" s="17"/>
+      <c r="C122" s="18"/>
       <c r="E122" s="10"/>
     </row>
     <row r="123">
-      <c r="C123" s="17"/>
+      <c r="C123" s="18"/>
       <c r="E123" s="10"/>
     </row>
     <row r="124">
-      <c r="C124" s="17"/>
+      <c r="C124" s="18"/>
       <c r="E124" s="10"/>
     </row>
     <row r="125">
-      <c r="C125" s="17"/>
+      <c r="C125" s="18"/>
       <c r="E125" s="10"/>
     </row>
     <row r="126">
-      <c r="C126" s="17"/>
+      <c r="C126" s="18"/>
       <c r="E126" s="10"/>
     </row>
     <row r="127">
-      <c r="C127" s="17"/>
+      <c r="C127" s="18"/>
       <c r="E127" s="10"/>
     </row>
     <row r="128">
-      <c r="C128" s="17"/>
+      <c r="C128" s="18"/>
       <c r="E128" s="10"/>
     </row>
     <row r="129">
-      <c r="C129" s="17"/>
+      <c r="C129" s="18"/>
       <c r="E129" s="10"/>
     </row>
     <row r="130">
-      <c r="C130" s="17"/>
+      <c r="C130" s="18"/>
       <c r="E130" s="10"/>
     </row>
     <row r="131">
-      <c r="C131" s="17"/>
+      <c r="C131" s="18"/>
       <c r="E131" s="10"/>
     </row>
     <row r="132">
-      <c r="C132" s="17"/>
+      <c r="C132" s="18"/>
       <c r="E132" s="10"/>
     </row>
     <row r="133">
-      <c r="C133" s="17"/>
+      <c r="C133" s="18"/>
       <c r="E133" s="10"/>
     </row>
     <row r="134">
-      <c r="C134" s="17"/>
+      <c r="C134" s="18"/>
       <c r="E134" s="10"/>
     </row>
     <row r="135">
-      <c r="C135" s="17"/>
+      <c r="C135" s="18"/>
       <c r="E135" s="10"/>
     </row>
     <row r="136">
-      <c r="C136" s="17"/>
+      <c r="C136" s="18"/>
       <c r="E136" s="10"/>
     </row>
     <row r="137">
-      <c r="C137" s="17"/>
+      <c r="C137" s="18"/>
       <c r="E137" s="10"/>
     </row>
     <row r="138">
-      <c r="C138" s="17"/>
+      <c r="C138" s="18"/>
       <c r="E138" s="10"/>
     </row>
     <row r="139">
-      <c r="C139" s="17"/>
+      <c r="C139" s="18"/>
       <c r="E139" s="10"/>
     </row>
     <row r="140">
-      <c r="C140" s="17"/>
+      <c r="C140" s="18"/>
       <c r="E140" s="10"/>
     </row>
     <row r="141">
-      <c r="C141" s="17"/>
+      <c r="C141" s="18"/>
       <c r="E141" s="10"/>
     </row>
     <row r="142">
-      <c r="C142" s="17"/>
+      <c r="C142" s="18"/>
       <c r="E142" s="10"/>
     </row>
     <row r="143">
-      <c r="C143" s="17"/>
+      <c r="C143" s="18"/>
       <c r="E143" s="10"/>
     </row>
     <row r="144">
-      <c r="C144" s="17"/>
+      <c r="C144" s="18"/>
       <c r="E144" s="10"/>
     </row>
     <row r="145">
-      <c r="C145" s="17"/>
+      <c r="C145" s="18"/>
       <c r="E145" s="10"/>
     </row>
     <row r="146">
-      <c r="C146" s="17"/>
+      <c r="C146" s="18"/>
       <c r="E146" s="10"/>
     </row>
     <row r="147">
-      <c r="C147" s="17"/>
+      <c r="C147" s="18"/>
       <c r="E147" s="10"/>
     </row>
     <row r="148">
-      <c r="C148" s="17"/>
+      <c r="C148" s="18"/>
       <c r="E148" s="10"/>
     </row>
     <row r="149">
-      <c r="C149" s="17"/>
+      <c r="C149" s="18"/>
       <c r="E149" s="10"/>
     </row>
     <row r="150">
-      <c r="C150" s="17"/>
+      <c r="C150" s="18"/>
       <c r="E150" s="10"/>
     </row>
     <row r="151">
-      <c r="C151" s="17"/>
+      <c r="C151" s="18"/>
       <c r="E151" s="10"/>
     </row>
     <row r="152">
-      <c r="C152" s="17"/>
+      <c r="C152" s="18"/>
       <c r="E152" s="10"/>
     </row>
     <row r="153">
-      <c r="C153" s="17"/>
+      <c r="C153" s="18"/>
       <c r="E153" s="10"/>
     </row>
     <row r="154">
-      <c r="C154" s="17"/>
+      <c r="C154" s="18"/>
       <c r="E154" s="10"/>
     </row>
     <row r="155">
-      <c r="C155" s="17"/>
+      <c r="C155" s="18"/>
       <c r="E155" s="10"/>
     </row>
     <row r="156">
-      <c r="C156" s="17"/>
+      <c r="C156" s="18"/>
       <c r="E156" s="10"/>
     </row>
     <row r="157">
-      <c r="C157" s="17"/>
+      <c r="C157" s="18"/>
       <c r="E157" s="10"/>
     </row>
     <row r="158">
-      <c r="C158" s="17"/>
+      <c r="C158" s="18"/>
       <c r="E158" s="10"/>
     </row>
     <row r="159">
-      <c r="C159" s="17"/>
+      <c r="C159" s="18"/>
       <c r="E159" s="10"/>
     </row>
     <row r="160">
-      <c r="C160" s="17"/>
+      <c r="C160" s="18"/>
       <c r="E160" s="10"/>
     </row>
     <row r="161">
-      <c r="C161" s="17"/>
+      <c r="C161" s="18"/>
       <c r="E161" s="10"/>
     </row>
     <row r="162">
-      <c r="C162" s="17"/>
+      <c r="C162" s="18"/>
       <c r="E162" s="10"/>
     </row>
     <row r="163">
-      <c r="C163" s="17"/>
+      <c r="C163" s="18"/>
       <c r="E163" s="10"/>
     </row>
     <row r="164">
-      <c r="C164" s="17"/>
+      <c r="C164" s="18"/>
       <c r="E164" s="10"/>
     </row>
     <row r="165">
-      <c r="C165" s="17"/>
+      <c r="C165" s="18"/>
       <c r="E165" s="10"/>
     </row>
     <row r="166">
-      <c r="C166" s="17"/>
+      <c r="C166" s="18"/>
       <c r="E166" s="10"/>
     </row>
     <row r="167">
-      <c r="C167" s="17"/>
+      <c r="C167" s="18"/>
       <c r="E167" s="10"/>
     </row>
     <row r="168">
-      <c r="C168" s="17"/>
+      <c r="C168" s="18"/>
       <c r="E168" s="10"/>
     </row>
     <row r="169">
-      <c r="C169" s="17"/>
+      <c r="C169" s="18"/>
       <c r="E169" s="10"/>
     </row>
     <row r="170">
-      <c r="C170" s="17"/>
+      <c r="C170" s="18"/>
       <c r="E170" s="10"/>
     </row>
     <row r="171">
-      <c r="C171" s="17"/>
+      <c r="C171" s="18"/>
       <c r="E171" s="10"/>
     </row>
     <row r="172">
-      <c r="C172" s="17"/>
+      <c r="C172" s="18"/>
       <c r="E172" s="10"/>
     </row>
     <row r="173">
-      <c r="C173" s="17"/>
+      <c r="C173" s="18"/>
       <c r="E173" s="10"/>
     </row>
     <row r="174">
-      <c r="C174" s="17"/>
+      <c r="C174" s="18"/>
       <c r="E174" s="10"/>
     </row>
     <row r="175">
-      <c r="C175" s="17"/>
+      <c r="C175" s="18"/>
       <c r="E175" s="10"/>
     </row>
     <row r="176">
-      <c r="C176" s="17"/>
+      <c r="C176" s="18"/>
       <c r="E176" s="10"/>
     </row>
     <row r="177">
-      <c r="C177" s="17"/>
+      <c r="C177" s="18"/>
       <c r="E177" s="10"/>
     </row>
     <row r="178">
-      <c r="C178" s="17"/>
+      <c r="C178" s="18"/>
       <c r="E178" s="10"/>
     </row>
     <row r="179">
-      <c r="C179" s="17"/>
+      <c r="C179" s="18"/>
       <c r="E179" s="10"/>
     </row>
     <row r="180">
-      <c r="C180" s="17"/>
+      <c r="C180" s="18"/>
       <c r="E180" s="10"/>
     </row>
     <row r="181">
-      <c r="C181" s="17"/>
+      <c r="C181" s="18"/>
       <c r="E181" s="10"/>
     </row>
     <row r="182">
-      <c r="C182" s="17"/>
+      <c r="C182" s="18"/>
       <c r="E182" s="10"/>
     </row>
     <row r="183">
-      <c r="C183" s="17"/>
+      <c r="C183" s="18"/>
       <c r="E183" s="10"/>
     </row>
     <row r="184">
-      <c r="C184" s="17"/>
+      <c r="C184" s="18"/>
       <c r="E184" s="10"/>
     </row>
     <row r="185">
-      <c r="C185" s="17"/>
+      <c r="C185" s="18"/>
       <c r="E185" s="10"/>
     </row>
     <row r="186">
-      <c r="C186" s="17"/>
+      <c r="C186" s="18"/>
       <c r="E186" s="10"/>
     </row>
     <row r="187">
-      <c r="C187" s="17"/>
+      <c r="C187" s="18"/>
       <c r="E187" s="10"/>
     </row>
     <row r="188">
-      <c r="C188" s="17"/>
+      <c r="C188" s="18"/>
       <c r="E188" s="10"/>
     </row>
     <row r="189">
-      <c r="C189" s="17"/>
+      <c r="C189" s="18"/>
       <c r="E189" s="10"/>
     </row>
     <row r="190">
-      <c r="C190" s="17"/>
+      <c r="C190" s="18"/>
       <c r="E190" s="10"/>
     </row>
     <row r="191">
-      <c r="C191" s="17"/>
+      <c r="C191" s="18"/>
       <c r="E191" s="10"/>
     </row>
     <row r="192">
-      <c r="C192" s="17"/>
+      <c r="C192" s="18"/>
       <c r="E192" s="10"/>
     </row>
     <row r="193">
-      <c r="C193" s="17"/>
+      <c r="C193" s="18"/>
       <c r="E193" s="10"/>
     </row>
     <row r="194">
-      <c r="C194" s="17"/>
+      <c r="C194" s="18"/>
       <c r="E194" s="10"/>
     </row>
     <row r="195">
-      <c r="C195" s="17"/>
+      <c r="C195" s="18"/>
       <c r="E195" s="10"/>
     </row>
     <row r="196">
-      <c r="C196" s="17"/>
+      <c r="C196" s="18"/>
       <c r="E196" s="10"/>
     </row>
     <row r="197">
-      <c r="C197" s="17"/>
+      <c r="C197" s="18"/>
       <c r="E197" s="10"/>
     </row>
     <row r="198">
-      <c r="C198" s="17"/>
+      <c r="C198" s="18"/>
       <c r="E198" s="10"/>
     </row>
     <row r="199">
-      <c r="C199" s="17"/>
+      <c r="C199" s="18"/>
       <c r="E199" s="10"/>
     </row>
     <row r="200">
-      <c r="C200" s="17"/>
+      <c r="C200" s="18"/>
       <c r="E200" s="10"/>
     </row>
     <row r="201">
-      <c r="C201" s="17"/>
+      <c r="C201" s="18"/>
       <c r="E201" s="10"/>
     </row>
     <row r="202">
-      <c r="C202" s="17"/>
+      <c r="C202" s="18"/>
       <c r="E202" s="10"/>
     </row>
     <row r="203">
-      <c r="C203" s="17"/>
+      <c r="C203" s="18"/>
       <c r="E203" s="10"/>
     </row>
     <row r="204">
-      <c r="C204" s="17"/>
+      <c r="C204" s="18"/>
       <c r="E204" s="10"/>
     </row>
     <row r="205">
-      <c r="C205" s="17"/>
+      <c r="C205" s="18"/>
       <c r="E205" s="10"/>
     </row>
     <row r="206">
-      <c r="C206" s="17"/>
+      <c r="C206" s="18"/>
       <c r="E206" s="10"/>
     </row>
     <row r="207">
-      <c r="C207" s="17"/>
+      <c r="C207" s="18"/>
       <c r="E207" s="10"/>
     </row>
     <row r="208">
-      <c r="C208" s="17"/>
+      <c r="C208" s="18"/>
       <c r="E208" s="10"/>
     </row>
     <row r="209">
-      <c r="C209" s="17"/>
+      <c r="C209" s="18"/>
       <c r="E209" s="10"/>
     </row>
     <row r="210">
-      <c r="C210" s="17"/>
+      <c r="C210" s="18"/>
       <c r="E210" s="10"/>
     </row>
     <row r="211">
-      <c r="C211" s="17"/>
+      <c r="C211" s="18"/>
       <c r="E211" s="10"/>
     </row>
     <row r="212">
-      <c r="C212" s="17"/>
+      <c r="C212" s="18"/>
       <c r="E212" s="10"/>
     </row>
     <row r="213">
-      <c r="C213" s="17"/>
+      <c r="C213" s="18"/>
       <c r="E213" s="10"/>
     </row>
     <row r="214">
-      <c r="C214" s="17"/>
+      <c r="C214" s="18"/>
       <c r="E214" s="10"/>
     </row>
     <row r="215">
-      <c r="C215" s="17"/>
+      <c r="C215" s="18"/>
       <c r="E215" s="10"/>
     </row>
     <row r="216">
-      <c r="C216" s="17"/>
+      <c r="C216" s="18"/>
       <c r="E216" s="10"/>
     </row>
     <row r="217">
-      <c r="C217" s="17"/>
+      <c r="C217" s="18"/>
       <c r="E217" s="10"/>
     </row>
     <row r="218">
-      <c r="C218" s="17"/>
+      <c r="C218" s="18"/>
       <c r="E218" s="10"/>
     </row>
     <row r="219">
-      <c r="C219" s="17"/>
+      <c r="C219" s="18"/>
       <c r="E219" s="10"/>
     </row>
     <row r="220">
-      <c r="C220" s="17"/>
+      <c r="C220" s="18"/>
       <c r="E220" s="10"/>
     </row>
     <row r="221">
-      <c r="C221" s="17"/>
+      <c r="C221" s="18"/>
       <c r="E221" s="10"/>
     </row>
     <row r="222">
-      <c r="C222" s="17"/>
+      <c r="C222" s="18"/>
       <c r="E222" s="10"/>
     </row>
     <row r="223">
-      <c r="C223" s="17"/>
+      <c r="C223" s="18"/>
       <c r="E223" s="10"/>
     </row>
     <row r="224">
-      <c r="C224" s="17"/>
+      <c r="C224" s="18"/>
       <c r="E224" s="10"/>
     </row>
     <row r="225">
-      <c r="C225" s="17"/>
+      <c r="C225" s="18"/>
       <c r="E225" s="10"/>
     </row>
     <row r="226">
-      <c r="C226" s="17"/>
+      <c r="C226" s="18"/>
       <c r="E226" s="10"/>
     </row>
     <row r="227">
-      <c r="C227" s="17"/>
+      <c r="C227" s="18"/>
       <c r="E227" s="10"/>
     </row>
     <row r="228">
-      <c r="C228" s="17"/>
+      <c r="C228" s="18"/>
       <c r="E228" s="10"/>
     </row>
     <row r="229">
-      <c r="C229" s="17"/>
+      <c r="C229" s="18"/>
       <c r="E229" s="10"/>
     </row>
     <row r="230">
-      <c r="C230" s="17"/>
+      <c r="C230" s="18"/>
       <c r="E230" s="10"/>
     </row>
     <row r="231">
-      <c r="C231" s="17"/>
+      <c r="C231" s="18"/>
       <c r="E231" s="10"/>
     </row>
     <row r="232">
-      <c r="C232" s="17"/>
+      <c r="C232" s="18"/>
       <c r="E232" s="10"/>
     </row>
     <row r="233">
-      <c r="C233" s="17"/>
+      <c r="C233" s="18"/>
       <c r="E233" s="10"/>
     </row>
     <row r="234">
-      <c r="C234" s="17"/>
+      <c r="C234" s="18"/>
       <c r="E234" s="10"/>
     </row>
     <row r="235">
-      <c r="C235" s="17"/>
+      <c r="C235" s="18"/>
       <c r="E235" s="10"/>
     </row>
     <row r="236">
-      <c r="C236" s="17"/>
+      <c r="C236" s="18"/>
       <c r="E236" s="10"/>
     </row>
     <row r="237">
-      <c r="C237" s="17"/>
+      <c r="C237" s="18"/>
       <c r="E237" s="10"/>
     </row>
     <row r="238">
-      <c r="C238" s="17"/>
+      <c r="C238" s="18"/>
       <c r="E238" s="10"/>
     </row>
     <row r="239">
-      <c r="C239" s="17"/>
+      <c r="C239" s="18"/>
       <c r="E239" s="10"/>
     </row>
     <row r="240">
-      <c r="C240" s="17"/>
+      <c r="C240" s="18"/>
       <c r="E240" s="10"/>
     </row>
     <row r="241">
-      <c r="C241" s="17"/>
+      <c r="C241" s="18"/>
       <c r="E241" s="10"/>
     </row>
     <row r="242">
-      <c r="C242" s="17"/>
+      <c r="C242" s="18"/>
       <c r="E242" s="10"/>
     </row>
     <row r="243">
-      <c r="C243" s="17"/>
+      <c r="C243" s="18"/>
       <c r="E243" s="10"/>
     </row>
     <row r="244">
-      <c r="C244" s="17"/>
+      <c r="C244" s="18"/>
       <c r="E244" s="10"/>
     </row>
     <row r="245">
-      <c r="C245" s="17"/>
+      <c r="C245" s="18"/>
       <c r="E245" s="10"/>
     </row>
     <row r="246">
-      <c r="C246" s="17"/>
+      <c r="C246" s="18"/>
       <c r="E246" s="10"/>
     </row>
     <row r="247">
-      <c r="C247" s="17"/>
+      <c r="C247" s="18"/>
       <c r="E247" s="10"/>
     </row>
     <row r="248">
-      <c r="C248" s="17"/>
+      <c r="C248" s="18"/>
       <c r="E248" s="10"/>
     </row>
     <row r="249">
-      <c r="C249" s="17"/>
+      <c r="C249" s="18"/>
       <c r="E249" s="10"/>
     </row>
     <row r="250">
-      <c r="C250" s="17"/>
+      <c r="C250" s="18"/>
       <c r="E250" s="10"/>
     </row>
     <row r="251">
-      <c r="C251" s="17"/>
+      <c r="C251" s="18"/>
       <c r="E251" s="10"/>
     </row>
     <row r="252">
-      <c r="C252" s="17"/>
+      <c r="C252" s="18"/>
       <c r="E252" s="10"/>
     </row>
     <row r="253">
-      <c r="C253" s="17"/>
+      <c r="C253" s="18"/>
       <c r="E253" s="10"/>
     </row>
     <row r="254">
-      <c r="C254" s="17"/>
+      <c r="C254" s="18"/>
       <c r="E254" s="10"/>
     </row>
     <row r="255">
-      <c r="C255" s="17"/>
+      <c r="C255" s="18"/>
       <c r="E255" s="10"/>
     </row>
     <row r="256">
-      <c r="C256" s="17"/>
+      <c r="C256" s="18"/>
       <c r="E256" s="10"/>
     </row>
     <row r="257">
-      <c r="C257" s="17"/>
+      <c r="C257" s="18"/>
       <c r="E257" s="10"/>
     </row>
     <row r="258">
-      <c r="C258" s="17"/>
+      <c r="C258" s="18"/>
       <c r="E258" s="10"/>
     </row>
     <row r="259">
-      <c r="C259" s="17"/>
+      <c r="C259" s="18"/>
       <c r="E259" s="10"/>
     </row>
     <row r="260">
-      <c r="C260" s="17"/>
+      <c r="C260" s="18"/>
       <c r="E260" s="10"/>
     </row>
     <row r="261">
-      <c r="C261" s="17"/>
+      <c r="C261" s="18"/>
       <c r="E261" s="10"/>
     </row>
     <row r="262">
-      <c r="C262" s="17"/>
+      <c r="C262" s="18"/>
       <c r="E262" s="10"/>
     </row>
     <row r="263">
-      <c r="C263" s="17"/>
+      <c r="C263" s="18"/>
       <c r="E263" s="10"/>
     </row>
     <row r="264">
-      <c r="C264" s="17"/>
+      <c r="C264" s="18"/>
       <c r="E264" s="10"/>
     </row>
     <row r="265">
-      <c r="C265" s="17"/>
+      <c r="C265" s="18"/>
       <c r="E265" s="10"/>
     </row>
     <row r="266">
-      <c r="C266" s="17"/>
+      <c r="C266" s="18"/>
       <c r="E266" s="10"/>
     </row>
     <row r="267">
-      <c r="C267" s="17"/>
+      <c r="C267" s="18"/>
       <c r="E267" s="10"/>
     </row>
     <row r="268">
-      <c r="C268" s="17"/>
+      <c r="C268" s="18"/>
       <c r="E268" s="10"/>
     </row>
     <row r="269">
-      <c r="C269" s="17"/>
+      <c r="C269" s="18"/>
       <c r="E269" s="10"/>
     </row>
     <row r="270">
-      <c r="C270" s="17"/>
+      <c r="C270" s="18"/>
       <c r="E270" s="10"/>
     </row>
     <row r="271">
-      <c r="C271" s="17"/>
+      <c r="C271" s="18"/>
       <c r="E271" s="10"/>
     </row>
     <row r="272">
-      <c r="C272" s="17"/>
+      <c r="C272" s="18"/>
       <c r="E272" s="10"/>
     </row>
     <row r="273">
-      <c r="C273" s="17"/>
+      <c r="C273" s="18"/>
       <c r="E273" s="10"/>
     </row>
     <row r="274">
-      <c r="C274" s="17"/>
+      <c r="C274" s="18"/>
       <c r="E274" s="10"/>
     </row>
     <row r="275">
-      <c r="C275" s="17"/>
+      <c r="C275" s="18"/>
       <c r="E275" s="10"/>
     </row>
     <row r="276">
-      <c r="C276" s="17"/>
+      <c r="C276" s="18"/>
       <c r="E276" s="10"/>
     </row>
     <row r="277">
-      <c r="C277" s="17"/>
+      <c r="C277" s="18"/>
       <c r="E277" s="10"/>
     </row>
     <row r="278">
-      <c r="C278" s="17"/>
+      <c r="C278" s="18"/>
       <c r="E278" s="10"/>
     </row>
     <row r="279">
-      <c r="C279" s="17"/>
+      <c r="C279" s="18"/>
       <c r="E279" s="10"/>
     </row>
     <row r="280">
-      <c r="C280" s="17"/>
+      <c r="C280" s="18"/>
       <c r="E280" s="10"/>
     </row>
     <row r="281">
-      <c r="C281" s="17"/>
+      <c r="C281" s="18"/>
       <c r="E281" s="10"/>
     </row>
     <row r="282">
-      <c r="C282" s="17"/>
+      <c r="C282" s="18"/>
       <c r="E282" s="10"/>
     </row>
     <row r="283">
-      <c r="C283" s="17"/>
+      <c r="C283" s="18"/>
       <c r="E283" s="10"/>
     </row>
     <row r="284">
-      <c r="C284" s="17"/>
+      <c r="C284" s="18"/>
       <c r="E284" s="10"/>
     </row>
     <row r="285">
-      <c r="C285" s="17"/>
+      <c r="C285" s="18"/>
       <c r="E285" s="10"/>
     </row>
     <row r="286">
-      <c r="C286" s="17"/>
+      <c r="C286" s="18"/>
       <c r="E286" s="10"/>
     </row>
     <row r="287">
-      <c r="C287" s="17"/>
+      <c r="C287" s="18"/>
       <c r="E287" s="10"/>
     </row>
     <row r="288">
-      <c r="C288" s="17"/>
+      <c r="C288" s="18"/>
       <c r="E288" s="10"/>
     </row>
     <row r="289">
-      <c r="C289" s="17"/>
+      <c r="C289" s="18"/>
       <c r="E289" s="10"/>
     </row>
     <row r="290">
-      <c r="C290" s="17"/>
+      <c r="C290" s="18"/>
       <c r="E290" s="10"/>
     </row>
     <row r="291">
-      <c r="C291" s="17"/>
+      <c r="C291" s="18"/>
       <c r="E291" s="10"/>
     </row>
     <row r="292">
-      <c r="C292" s="17"/>
+      <c r="C292" s="18"/>
       <c r="E292" s="10"/>
     </row>
     <row r="293">
-      <c r="C293" s="17"/>
+      <c r="C293" s="18"/>
       <c r="E293" s="10"/>
     </row>
     <row r="294">
-      <c r="C294" s="17"/>
+      <c r="C294" s="18"/>
       <c r="E294" s="10"/>
     </row>
     <row r="295">
-      <c r="C295" s="17"/>
+      <c r="C295" s="18"/>
       <c r="E295" s="10"/>
     </row>
     <row r="296">
-      <c r="C296" s="17"/>
+      <c r="C296" s="18"/>
       <c r="E296" s="10"/>
     </row>
     <row r="297">
-      <c r="C297" s="17"/>
+      <c r="C297" s="18"/>
       <c r="E297" s="10"/>
     </row>
     <row r="298">
-      <c r="C298" s="17"/>
+      <c r="C298" s="18"/>
       <c r="E298" s="10"/>
     </row>
     <row r="299">
-      <c r="C299" s="17"/>
+      <c r="C299" s="18"/>
       <c r="E299" s="10"/>
     </row>
     <row r="300">
-      <c r="C300" s="17"/>
+      <c r="C300" s="18"/>
       <c r="E300" s="10"/>
     </row>
     <row r="301">
-      <c r="C301" s="17"/>
+      <c r="C301" s="18"/>
       <c r="E301" s="10"/>
     </row>
     <row r="302">
-      <c r="C302" s="17"/>
+      <c r="C302" s="18"/>
       <c r="E302" s="10"/>
     </row>
     <row r="303">
-      <c r="C303" s="17"/>
+      <c r="C303" s="18"/>
       <c r="E303" s="10"/>
     </row>
     <row r="304">
-      <c r="C304" s="17"/>
+      <c r="C304" s="18"/>
       <c r="E304" s="10"/>
     </row>
     <row r="305">
-      <c r="C305" s="17"/>
+      <c r="C305" s="18"/>
       <c r="E305" s="10"/>
     </row>
     <row r="306">
-      <c r="C306" s="17"/>
+      <c r="C306" s="18"/>
       <c r="E306" s="10"/>
     </row>
     <row r="307">
-      <c r="C307" s="17"/>
+      <c r="C307" s="18"/>
       <c r="E307" s="10"/>
     </row>
     <row r="308">
-      <c r="C308" s="17"/>
+      <c r="C308" s="18"/>
       <c r="E308" s="10"/>
     </row>
     <row r="309">
-      <c r="C309" s="17"/>
+      <c r="C309" s="18"/>
       <c r="E309" s="10"/>
     </row>
     <row r="310">
-      <c r="C310" s="17"/>
+      <c r="C310" s="18"/>
       <c r="E310" s="10"/>
     </row>
     <row r="311">
-      <c r="C311" s="17"/>
+      <c r="C311" s="18"/>
       <c r="E311" s="10"/>
     </row>
     <row r="312">
-      <c r="C312" s="17"/>
+      <c r="C312" s="18"/>
       <c r="E312" s="10"/>
     </row>
     <row r="313">
-      <c r="C313" s="17"/>
+      <c r="C313" s="18"/>
       <c r="E313" s="10"/>
     </row>
     <row r="314">
-      <c r="C314" s="17"/>
+      <c r="C314" s="18"/>
       <c r="E314" s="10"/>
     </row>
     <row r="315">
-      <c r="C315" s="17"/>
+      <c r="C315" s="18"/>
       <c r="E315" s="10"/>
     </row>
     <row r="316">
-      <c r="C316" s="17"/>
+      <c r="C316" s="18"/>
       <c r="E316" s="10"/>
     </row>
     <row r="317">
-      <c r="C317" s="17"/>
+      <c r="C317" s="18"/>
       <c r="E317" s="10"/>
     </row>
     <row r="318">
-      <c r="C318" s="17"/>
+      <c r="C318" s="18"/>
       <c r="E318" s="10"/>
     </row>
     <row r="319">
-      <c r="C319" s="17"/>
+      <c r="C319" s="18"/>
       <c r="E319" s="10"/>
     </row>
     <row r="320">
-      <c r="C320" s="17"/>
+      <c r="C320" s="18"/>
       <c r="E320" s="10"/>
     </row>
     <row r="321">
-      <c r="C321" s="17"/>
+      <c r="C321" s="18"/>
       <c r="E321" s="10"/>
     </row>
     <row r="322">
-      <c r="C322" s="17"/>
+      <c r="C322" s="18"/>
       <c r="E322" s="10"/>
     </row>
     <row r="323">
-      <c r="C323" s="17"/>
+      <c r="C323" s="18"/>
       <c r="E323" s="10"/>
     </row>
     <row r="324">
-      <c r="C324" s="17"/>
+      <c r="C324" s="18"/>
       <c r="E324" s="10"/>
     </row>
     <row r="325">
-      <c r="C325" s="17"/>
+      <c r="C325" s="18"/>
       <c r="E325" s="10"/>
     </row>
     <row r="326">
-      <c r="C326" s="17"/>
+      <c r="C326" s="18"/>
       <c r="E326" s="10"/>
     </row>
     <row r="327">
-      <c r="C327" s="17"/>
+      <c r="C327" s="18"/>
       <c r="E327" s="10"/>
     </row>
     <row r="328">
-      <c r="C328" s="17"/>
+      <c r="C328" s="18"/>
       <c r="E328" s="10"/>
     </row>
     <row r="329">
-      <c r="C329" s="17"/>
+      <c r="C329" s="18"/>
       <c r="E329" s="10"/>
     </row>
     <row r="330">
-      <c r="C330" s="17"/>
+      <c r="C330" s="18"/>
       <c r="E330" s="10"/>
     </row>
     <row r="331">
-      <c r="C331" s="17"/>
+      <c r="C331" s="18"/>
       <c r="E331" s="10"/>
     </row>
     <row r="332">
-      <c r="C332" s="17"/>
+      <c r="C332" s="18"/>
       <c r="E332" s="10"/>
     </row>
     <row r="333">
-      <c r="C333" s="17"/>
+      <c r="C333" s="18"/>
       <c r="E333" s="10"/>
     </row>
     <row r="334">
-      <c r="C334" s="17"/>
+      <c r="C334" s="18"/>
       <c r="E334" s="10"/>
     </row>
     <row r="335">
-      <c r="C335" s="17"/>
+      <c r="C335" s="18"/>
       <c r="E335" s="10"/>
     </row>
     <row r="336">
-      <c r="C336" s="17"/>
+      <c r="C336" s="18"/>
       <c r="E336" s="10"/>
     </row>
     <row r="337">
-      <c r="C337" s="17"/>
+      <c r="C337" s="18"/>
       <c r="E337" s="10"/>
     </row>
     <row r="338">
-      <c r="C338" s="17"/>
+      <c r="C338" s="18"/>
       <c r="E338" s="10"/>
     </row>
     <row r="339">
-      <c r="C339" s="17"/>
+      <c r="C339" s="18"/>
       <c r="E339" s="10"/>
     </row>
     <row r="340">
-      <c r="C340" s="17"/>
+      <c r="C340" s="18"/>
       <c r="E340" s="10"/>
     </row>
     <row r="341">
-      <c r="C341" s="17"/>
+      <c r="C341" s="18"/>
       <c r="E341" s="10"/>
     </row>
     <row r="342">
-      <c r="C342" s="17"/>
+      <c r="C342" s="18"/>
       <c r="E342" s="10"/>
     </row>
     <row r="343">
-      <c r="C343" s="17"/>
+      <c r="C343" s="18"/>
       <c r="E343" s="10"/>
     </row>
     <row r="344">
-      <c r="C344" s="17"/>
+      <c r="C344" s="18"/>
       <c r="E344" s="10"/>
     </row>
     <row r="345">
-      <c r="C345" s="17"/>
+      <c r="C345" s="18"/>
       <c r="E345" s="10"/>
     </row>
     <row r="346">
-      <c r="C346" s="17"/>
+      <c r="C346" s="18"/>
       <c r="E346" s="10"/>
     </row>
     <row r="347">
-      <c r="C347" s="17"/>
+      <c r="C347" s="18"/>
       <c r="E347" s="10"/>
     </row>
     <row r="348">
-      <c r="C348" s="17"/>
+      <c r="C348" s="18"/>
       <c r="E348" s="10"/>
     </row>
     <row r="349">
-      <c r="C349" s="17"/>
+      <c r="C349" s="18"/>
       <c r="E349" s="10"/>
     </row>
     <row r="350">
-      <c r="C350" s="17"/>
+      <c r="C350" s="18"/>
       <c r="E350" s="10"/>
     </row>
     <row r="351">
-      <c r="C351" s="17"/>
+      <c r="C351" s="18"/>
       <c r="E351" s="10"/>
     </row>
     <row r="352">
-      <c r="C352" s="17"/>
+      <c r="C352" s="18"/>
       <c r="E352" s="10"/>
     </row>
     <row r="353">
-      <c r="C353" s="17"/>
+      <c r="C353" s="18"/>
       <c r="E353" s="10"/>
     </row>
     <row r="354">
-      <c r="C354" s="17"/>
+      <c r="C354" s="18"/>
       <c r="E354" s="10"/>
     </row>
     <row r="355">
-      <c r="C355" s="17"/>
+      <c r="C355" s="18"/>
       <c r="E355" s="10"/>
     </row>
     <row r="356">
-      <c r="C356" s="17"/>
+      <c r="C356" s="18"/>
       <c r="E356" s="10"/>
     </row>
     <row r="357">
-      <c r="C357" s="17"/>
+      <c r="C357" s="18"/>
       <c r="E357" s="10"/>
     </row>
     <row r="358">
-      <c r="C358" s="17"/>
+      <c r="C358" s="18"/>
       <c r="E358" s="10"/>
     </row>
     <row r="359">
-      <c r="C359" s="17"/>
+      <c r="C359" s="18"/>
       <c r="E359" s="10"/>
     </row>
     <row r="360">
-      <c r="C360" s="17"/>
+      <c r="C360" s="18"/>
       <c r="E360" s="10"/>
     </row>
     <row r="361">
-      <c r="C361" s="17"/>
+      <c r="C361" s="18"/>
       <c r="E361" s="10"/>
     </row>
     <row r="362">
-      <c r="C362" s="17"/>
+      <c r="C362" s="18"/>
       <c r="E362" s="10"/>
     </row>
     <row r="363">
-      <c r="C363" s="17"/>
+      <c r="C363" s="18"/>
       <c r="E363" s="10"/>
     </row>
     <row r="364">
-      <c r="C364" s="17"/>
+      <c r="C364" s="18"/>
       <c r="E364" s="10"/>
     </row>
     <row r="365">
-      <c r="C365" s="17"/>
+      <c r="C365" s="18"/>
       <c r="E365" s="10"/>
     </row>
     <row r="366">
-      <c r="C366" s="17"/>
+      <c r="C366" s="18"/>
       <c r="E366" s="10"/>
     </row>
     <row r="367">
-      <c r="C367" s="17"/>
+      <c r="C367" s="18"/>
       <c r="E367" s="10"/>
     </row>
     <row r="368">
-      <c r="C368" s="17"/>
+      <c r="C368" s="18"/>
       <c r="E368" s="10"/>
     </row>
     <row r="369">
-      <c r="C369" s="17"/>
+      <c r="C369" s="18"/>
       <c r="E369" s="10"/>
     </row>
     <row r="370">
-      <c r="C370" s="17"/>
+      <c r="C370" s="18"/>
       <c r="E370" s="10"/>
     </row>
     <row r="371">
-      <c r="C371" s="17"/>
+      <c r="C371" s="18"/>
       <c r="E371" s="10"/>
     </row>
     <row r="372">
-      <c r="C372" s="17"/>
+      <c r="C372" s="18"/>
       <c r="E372" s="10"/>
     </row>
     <row r="373">
-      <c r="C373" s="17"/>
+      <c r="C373" s="18"/>
       <c r="E373" s="10"/>
     </row>
     <row r="374">
-      <c r="C374" s="17"/>
+      <c r="C374" s="18"/>
       <c r="E374" s="10"/>
     </row>
     <row r="375">
-      <c r="C375" s="17"/>
+      <c r="C375" s="18"/>
       <c r="E375" s="10"/>
     </row>
     <row r="376">
-      <c r="C376" s="17"/>
+      <c r="C376" s="18"/>
       <c r="E376" s="10"/>
     </row>
     <row r="377">
-      <c r="C377" s="17"/>
+      <c r="C377" s="18"/>
       <c r="E377" s="10"/>
     </row>
     <row r="378">
-      <c r="C378" s="17"/>
+      <c r="C378" s="18"/>
       <c r="E378" s="10"/>
     </row>
     <row r="379">
-      <c r="C379" s="17"/>
+      <c r="C379" s="18"/>
       <c r="E379" s="10"/>
     </row>
     <row r="380">
-      <c r="C380" s="17"/>
+      <c r="C380" s="18"/>
       <c r="E380" s="10"/>
     </row>
     <row r="381">
-      <c r="C381" s="17"/>
+      <c r="C381" s="18"/>
       <c r="E381" s="10"/>
     </row>
     <row r="382">
-      <c r="C382" s="17"/>
+      <c r="C382" s="18"/>
       <c r="E382" s="10"/>
     </row>
     <row r="383">
-      <c r="C383" s="17"/>
+      <c r="C383" s="18"/>
       <c r="E383" s="10"/>
     </row>
     <row r="384">
-      <c r="C384" s="17"/>
+      <c r="C384" s="18"/>
       <c r="E384" s="10"/>
     </row>
     <row r="385">
-      <c r="C385" s="17"/>
+      <c r="C385" s="18"/>
       <c r="E385" s="10"/>
     </row>
     <row r="386">
-      <c r="C386" s="17"/>
+      <c r="C386" s="18"/>
       <c r="E386" s="10"/>
     </row>
     <row r="387">
-      <c r="C387" s="17"/>
+      <c r="C387" s="18"/>
       <c r="E387" s="10"/>
     </row>
     <row r="388">
-      <c r="C388" s="17"/>
+      <c r="C388" s="18"/>
       <c r="E388" s="10"/>
     </row>
     <row r="389">
-      <c r="C389" s="17"/>
+      <c r="C389" s="18"/>
       <c r="E389" s="10"/>
     </row>
     <row r="390">
-      <c r="C390" s="17"/>
+      <c r="C390" s="18"/>
       <c r="E390" s="10"/>
     </row>
     <row r="391">
-      <c r="C391" s="17"/>
+      <c r="C391" s="18"/>
       <c r="E391" s="10"/>
     </row>
     <row r="392">
-      <c r="C392" s="17"/>
+      <c r="C392" s="18"/>
       <c r="E392" s="10"/>
     </row>
     <row r="393">
-      <c r="C393" s="17"/>
+      <c r="C393" s="18"/>
       <c r="E393" s="10"/>
     </row>
     <row r="394">
-      <c r="C394" s="17"/>
+      <c r="C394" s="18"/>
       <c r="E394" s="10"/>
     </row>
     <row r="395">
-      <c r="C395" s="17"/>
+      <c r="C395" s="18"/>
       <c r="E395" s="10"/>
     </row>
     <row r="396">
-      <c r="C396" s="17"/>
+      <c r="C396" s="18"/>
       <c r="E396" s="10"/>
     </row>
     <row r="397">
-      <c r="C397" s="17"/>
+      <c r="C397" s="18"/>
       <c r="E397" s="10"/>
     </row>
     <row r="398">
-      <c r="C398" s="17"/>
+      <c r="C398" s="18"/>
       <c r="E398" s="10"/>
     </row>
     <row r="399">
-      <c r="C399" s="17"/>
+      <c r="C399" s="18"/>
       <c r="E399" s="10"/>
     </row>
     <row r="400">
-      <c r="C400" s="17"/>
+      <c r="C400" s="18"/>
       <c r="E400" s="10"/>
     </row>
     <row r="401">
-      <c r="C401" s="17"/>
+      <c r="C401" s="18"/>
       <c r="E401" s="10"/>
     </row>
     <row r="402">
-      <c r="C402" s="17"/>
+      <c r="C402" s="18"/>
       <c r="E402" s="10"/>
     </row>
     <row r="403">
-      <c r="C403" s="17"/>
+      <c r="C403" s="18"/>
       <c r="E403" s="10"/>
     </row>
     <row r="404">
-      <c r="C404" s="17"/>
+      <c r="C404" s="18"/>
       <c r="E404" s="10"/>
     </row>
     <row r="405">
-      <c r="C405" s="17"/>
+      <c r="C405" s="18"/>
       <c r="E405" s="10"/>
     </row>
     <row r="406">
-      <c r="C406" s="17"/>
+      <c r="C406" s="18"/>
       <c r="E406" s="10"/>
     </row>
     <row r="407">
-      <c r="C407" s="17"/>
+      <c r="C407" s="18"/>
       <c r="E407" s="10"/>
     </row>
     <row r="408">
-      <c r="C408" s="17"/>
+      <c r="C408" s="18"/>
       <c r="E408" s="10"/>
     </row>
     <row r="409">
-      <c r="C409" s="17"/>
+      <c r="C409" s="18"/>
       <c r="E409" s="10"/>
     </row>
     <row r="410">
-      <c r="C410" s="17"/>
+      <c r="C410" s="18"/>
       <c r="E410" s="10"/>
     </row>
     <row r="411">
-      <c r="C411" s="17"/>
+      <c r="C411" s="18"/>
       <c r="E411" s="10"/>
     </row>
     <row r="412">
-      <c r="C412" s="17"/>
+      <c r="C412" s="18"/>
       <c r="E412" s="10"/>
     </row>
     <row r="413">
-      <c r="C413" s="17"/>
+      <c r="C413" s="18"/>
       <c r="E413" s="10"/>
     </row>
     <row r="414">
-      <c r="C414" s="17"/>
+      <c r="C414" s="18"/>
       <c r="E414" s="10"/>
     </row>
     <row r="415">
-      <c r="C415" s="17"/>
+      <c r="C415" s="18"/>
       <c r="E415" s="10"/>
     </row>
     <row r="416">
-      <c r="C416" s="17"/>
+      <c r="C416" s="18"/>
       <c r="E416" s="10"/>
     </row>
     <row r="417">
-      <c r="C417" s="17"/>
+      <c r="C417" s="18"/>
       <c r="E417" s="10"/>
     </row>
     <row r="418">
-      <c r="C418" s="17"/>
+      <c r="C418" s="18"/>
       <c r="E418" s="10"/>
     </row>
     <row r="419">
-      <c r="C419" s="17"/>
+      <c r="C419" s="18"/>
       <c r="E419" s="10"/>
     </row>
     <row r="420">
-      <c r="C420" s="17"/>
+      <c r="C420" s="18"/>
       <c r="E420" s="10"/>
     </row>
     <row r="421">
-      <c r="C421" s="17"/>
+      <c r="C421" s="18"/>
       <c r="E421" s="10"/>
     </row>
     <row r="422">
-      <c r="C422" s="17"/>
+      <c r="C422" s="18"/>
       <c r="E422" s="10"/>
     </row>
     <row r="423">
-      <c r="C423" s="17"/>
+      <c r="C423" s="18"/>
       <c r="E423" s="10"/>
     </row>
     <row r="424">
-      <c r="C424" s="17"/>
+      <c r="C424" s="18"/>
       <c r="E424" s="10"/>
     </row>
     <row r="425">
-      <c r="C425" s="17"/>
+      <c r="C425" s="18"/>
       <c r="E425" s="10"/>
     </row>
     <row r="426">
-      <c r="C426" s="17"/>
+      <c r="C426" s="18"/>
       <c r="E426" s="10"/>
     </row>
     <row r="427">
-      <c r="C427" s="17"/>
+      <c r="C427" s="18"/>
       <c r="E427" s="10"/>
     </row>
     <row r="428">
-      <c r="C428" s="17"/>
+      <c r="C428" s="18"/>
       <c r="E428" s="10"/>
     </row>
     <row r="429">
-      <c r="C429" s="17"/>
+      <c r="C429" s="18"/>
       <c r="E429" s="10"/>
     </row>
     <row r="430">
-      <c r="C430" s="17"/>
+      <c r="C430" s="18"/>
       <c r="E430" s="10"/>
     </row>
     <row r="431">
-      <c r="C431" s="17"/>
+      <c r="C431" s="18"/>
       <c r="E431" s="10"/>
     </row>
     <row r="432">
-      <c r="C432" s="17"/>
+      <c r="C432" s="18"/>
       <c r="E432" s="10"/>
     </row>
     <row r="433">
-      <c r="C433" s="17"/>
+      <c r="C433" s="18"/>
       <c r="E433" s="10"/>
     </row>
     <row r="434">
-      <c r="C434" s="17"/>
+      <c r="C434" s="18"/>
       <c r="E434" s="10"/>
     </row>
     <row r="435">
-      <c r="C435" s="17"/>
+      <c r="C435" s="18"/>
       <c r="E435" s="10"/>
     </row>
     <row r="436">
-      <c r="C436" s="17"/>
+      <c r="C436" s="18"/>
       <c r="E436" s="10"/>
     </row>
     <row r="437">
-      <c r="C437" s="17"/>
+      <c r="C437" s="18"/>
       <c r="E437" s="10"/>
     </row>
     <row r="438">
-      <c r="C438" s="17"/>
+      <c r="C438" s="18"/>
       <c r="E438" s="10"/>
     </row>
     <row r="439">
-      <c r="C439" s="17"/>
+      <c r="C439" s="18"/>
       <c r="E439" s="10"/>
     </row>
     <row r="440">
-      <c r="C440" s="17"/>
+      <c r="C440" s="18"/>
       <c r="E440" s="10"/>
     </row>
     <row r="441">
-      <c r="C441" s="17"/>
+      <c r="C441" s="18"/>
       <c r="E441" s="10"/>
     </row>
     <row r="442">
-      <c r="C442" s="17"/>
+      <c r="C442" s="18"/>
       <c r="E442" s="10"/>
     </row>
     <row r="443">
-      <c r="C443" s="17"/>
+      <c r="C443" s="18"/>
       <c r="E443" s="10"/>
     </row>
     <row r="444">
-      <c r="C444" s="17"/>
+      <c r="C444" s="18"/>
       <c r="E444" s="10"/>
     </row>
     <row r="445">
-      <c r="C445" s="17"/>
+      <c r="C445" s="18"/>
       <c r="E445" s="10"/>
     </row>
     <row r="446">
-      <c r="C446" s="17"/>
+      <c r="C446" s="18"/>
       <c r="E446" s="10"/>
     </row>
     <row r="447">
-      <c r="C447" s="17"/>
+      <c r="C447" s="18"/>
       <c r="E447" s="10"/>
     </row>
     <row r="448">
-      <c r="C448" s="17"/>
+      <c r="C448" s="18"/>
       <c r="E448" s="10"/>
     </row>
     <row r="449">
-      <c r="C449" s="17"/>
+      <c r="C449" s="18"/>
       <c r="E449" s="10"/>
     </row>
     <row r="450">
-      <c r="C450" s="17"/>
+      <c r="C450" s="18"/>
       <c r="E450" s="10"/>
     </row>
     <row r="451">
-      <c r="C451" s="17"/>
+      <c r="C451" s="18"/>
       <c r="E451" s="10"/>
     </row>
     <row r="452">
-      <c r="C452" s="17"/>
+      <c r="C452" s="18"/>
       <c r="E452" s="10"/>
     </row>
     <row r="453">
-      <c r="C453" s="17"/>
+      <c r="C453" s="18"/>
       <c r="E453" s="10"/>
     </row>
     <row r="454">
-      <c r="C454" s="17"/>
+      <c r="C454" s="18"/>
       <c r="E454" s="10"/>
     </row>
     <row r="455">
-      <c r="C455" s="17"/>
+      <c r="C455" s="18"/>
       <c r="E455" s="10"/>
     </row>
     <row r="456">
-      <c r="C456" s="17"/>
+      <c r="C456" s="18"/>
       <c r="E456" s="10"/>
     </row>
     <row r="457">
-      <c r="C457" s="17"/>
+      <c r="C457" s="18"/>
       <c r="E457" s="10"/>
     </row>
     <row r="458">
-      <c r="C458" s="17"/>
+      <c r="C458" s="18"/>
       <c r="E458" s="10"/>
     </row>
     <row r="459">
-      <c r="C459" s="17"/>
+      <c r="C459" s="18"/>
       <c r="E459" s="10"/>
     </row>
     <row r="460">
-      <c r="C460" s="17"/>
+      <c r="C460" s="18"/>
       <c r="E460" s="10"/>
     </row>
     <row r="461">
-      <c r="C461" s="17"/>
+      <c r="C461" s="18"/>
       <c r="E461" s="10"/>
     </row>
     <row r="462">
-      <c r="C462" s="17"/>
+      <c r="C462" s="18"/>
       <c r="E462" s="10"/>
     </row>
     <row r="463">
-      <c r="C463" s="17"/>
+      <c r="C463" s="18"/>
       <c r="E463" s="10"/>
     </row>
     <row r="464">
-      <c r="C464" s="17"/>
+      <c r="C464" s="18"/>
       <c r="E464" s="10"/>
     </row>
     <row r="465">
-      <c r="C465" s="17"/>
+      <c r="C465" s="18"/>
       <c r="E465" s="10"/>
     </row>
     <row r="466">
-      <c r="C466" s="17"/>
+      <c r="C466" s="18"/>
       <c r="E466" s="10"/>
     </row>
     <row r="467">
-      <c r="C467" s="17"/>
+      <c r="C467" s="18"/>
       <c r="E467" s="10"/>
     </row>
     <row r="468">
-      <c r="C468" s="17"/>
+      <c r="C468" s="18"/>
       <c r="E468" s="10"/>
     </row>
     <row r="469">
-      <c r="C469" s="17"/>
+      <c r="C469" s="18"/>
       <c r="E469" s="10"/>
     </row>
     <row r="470">
-      <c r="C470" s="17"/>
+      <c r="C470" s="18"/>
       <c r="E470" s="10"/>
     </row>
     <row r="471">
-      <c r="C471" s="17"/>
+      <c r="C471" s="18"/>
       <c r="E471" s="10"/>
     </row>
     <row r="472">
-      <c r="C472" s="17"/>
+      <c r="C472" s="18"/>
       <c r="E472" s="10"/>
     </row>
     <row r="473">
-      <c r="C473" s="17"/>
+      <c r="C473" s="18"/>
       <c r="E473" s="10"/>
     </row>
     <row r="474">
-      <c r="C474" s="17"/>
+      <c r="C474" s="18"/>
       <c r="E474" s="10"/>
     </row>
     <row r="475">
-      <c r="C475" s="17"/>
+      <c r="C475" s="18"/>
       <c r="E475" s="10"/>
     </row>
     <row r="476">
-      <c r="C476" s="17"/>
+      <c r="C476" s="18"/>
       <c r="E476" s="10"/>
     </row>
     <row r="477">
-      <c r="C477" s="17"/>
+      <c r="C477" s="18"/>
       <c r="E477" s="10"/>
     </row>
     <row r="478">
-      <c r="C478" s="17"/>
+      <c r="C478" s="18"/>
       <c r="E478" s="10"/>
     </row>
     <row r="479">
-      <c r="C479" s="17"/>
+      <c r="C479" s="18"/>
       <c r="E479" s="10"/>
     </row>
     <row r="480">
-      <c r="C480" s="17"/>
+      <c r="C480" s="18"/>
       <c r="E480" s="10"/>
     </row>
     <row r="481">
-      <c r="C481" s="17"/>
+      <c r="C481" s="18"/>
       <c r="E481" s="10"/>
     </row>
     <row r="482">
-      <c r="C482" s="17"/>
+      <c r="C482" s="18"/>
       <c r="E482" s="10"/>
     </row>
     <row r="483">
-      <c r="C483" s="17"/>
+      <c r="C483" s="18"/>
       <c r="E483" s="10"/>
     </row>
     <row r="484">
-      <c r="C484" s="17"/>
+      <c r="C484" s="18"/>
       <c r="E484" s="10"/>
     </row>
     <row r="485">
-      <c r="C485" s="17"/>
+      <c r="C485" s="18"/>
       <c r="E485" s="10"/>
     </row>
     <row r="486">
-      <c r="C486" s="17"/>
+      <c r="C486" s="18"/>
       <c r="E486" s="10"/>
     </row>
     <row r="487">
-      <c r="C487" s="17"/>
+      <c r="C487" s="18"/>
       <c r="E487" s="10"/>
     </row>
     <row r="488">
-      <c r="C488" s="17"/>
+      <c r="C488" s="18"/>
       <c r="E488" s="10"/>
     </row>
     <row r="489">
-      <c r="C489" s="17"/>
+      <c r="C489" s="18"/>
       <c r="E489" s="10"/>
     </row>
     <row r="490">
-      <c r="C490" s="17"/>
+      <c r="C490" s="18"/>
       <c r="E490" s="10"/>
     </row>
     <row r="491">
-      <c r="C491" s="17"/>
+      <c r="C491" s="18"/>
       <c r="E491" s="10"/>
     </row>
     <row r="492">
-      <c r="C492" s="17"/>
+      <c r="C492" s="18"/>
       <c r="E492" s="10"/>
     </row>
     <row r="493">
-      <c r="C493" s="17"/>
+      <c r="C493" s="18"/>
       <c r="E493" s="10"/>
     </row>
     <row r="494">
-      <c r="C494" s="17"/>
+      <c r="C494" s="18"/>
       <c r="E494" s="10"/>
     </row>
     <row r="495">
-      <c r="C495" s="17"/>
+      <c r="C495" s="18"/>
       <c r="E495" s="10"/>
     </row>
     <row r="496">
-      <c r="C496" s="17"/>
+      <c r="C496" s="18"/>
       <c r="E496" s="10"/>
     </row>
     <row r="497">
-      <c r="C497" s="17"/>
+      <c r="C497" s="18"/>
       <c r="E497" s="10"/>
     </row>
     <row r="498">
-      <c r="C498" s="17"/>
+      <c r="C498" s="18"/>
       <c r="E498" s="10"/>
     </row>
     <row r="499">
-      <c r="C499" s="17"/>
+      <c r="C499" s="18"/>
       <c r="E499" s="10"/>
     </row>
     <row r="500">
-      <c r="C500" s="17"/>
+      <c r="C500" s="18"/>
       <c r="E500" s="10"/>
     </row>
     <row r="501">
-      <c r="C501" s="17"/>
+      <c r="C501" s="18"/>
       <c r="E501" s="10"/>
     </row>
     <row r="502">
-      <c r="C502" s="17"/>
+      <c r="C502" s="18"/>
       <c r="E502" s="10"/>
     </row>
     <row r="503">
-      <c r="C503" s="17"/>
+      <c r="C503" s="18"/>
       <c r="E503" s="10"/>
     </row>
     <row r="504">
-      <c r="C504" s="17"/>
+      <c r="C504" s="18"/>
       <c r="E504" s="10"/>
     </row>
     <row r="505">
-      <c r="C505" s="17"/>
+      <c r="C505" s="18"/>
       <c r="E505" s="10"/>
     </row>
     <row r="506">
-      <c r="C506" s="17"/>
+      <c r="C506" s="18"/>
       <c r="E506" s="10"/>
     </row>
     <row r="507">
-      <c r="C507" s="17"/>
+      <c r="C507" s="18"/>
       <c r="E507" s="10"/>
     </row>
     <row r="508">
-      <c r="C508" s="17"/>
+      <c r="C508" s="18"/>
       <c r="E508" s="10"/>
     </row>
     <row r="509">
-      <c r="C509" s="17"/>
+      <c r="C509" s="18"/>
       <c r="E509" s="10"/>
     </row>
     <row r="510">
-      <c r="C510" s="17"/>
+      <c r="C510" s="18"/>
       <c r="E510" s="10"/>
     </row>
     <row r="511">
-      <c r="C511" s="17"/>
+      <c r="C511" s="18"/>
       <c r="E511" s="10"/>
     </row>
     <row r="512">
-      <c r="C512" s="17"/>
+      <c r="C512" s="18"/>
       <c r="E512" s="10"/>
     </row>
     <row r="513">
-      <c r="C513" s="17"/>
+      <c r="C513" s="18"/>
       <c r="E513" s="10"/>
     </row>
     <row r="514">
-      <c r="C514" s="17"/>
+      <c r="C514" s="18"/>
       <c r="E514" s="10"/>
     </row>
     <row r="515">
-      <c r="C515" s="17"/>
+      <c r="C515" s="18"/>
       <c r="E515" s="10"/>
     </row>
     <row r="516">
-      <c r="C516" s="17"/>
+      <c r="C516" s="18"/>
       <c r="E516" s="10"/>
     </row>
     <row r="517">
-      <c r="C517" s="17"/>
+      <c r="C517" s="18"/>
       <c r="E517" s="10"/>
     </row>
     <row r="518">
-      <c r="C518" s="17"/>
+      <c r="C518" s="18"/>
       <c r="E518" s="10"/>
     </row>
     <row r="519">
-      <c r="C519" s="17"/>
+      <c r="C519" s="18"/>
       <c r="E519" s="10"/>
     </row>
     <row r="520">
-      <c r="C520" s="17"/>
+      <c r="C520" s="18"/>
       <c r="E520" s="10"/>
     </row>
     <row r="521">
-      <c r="C521" s="17"/>
+      <c r="C521" s="18"/>
       <c r="E521" s="10"/>
     </row>
     <row r="522">
-      <c r="C522" s="17"/>
+      <c r="C522" s="18"/>
       <c r="E522" s="10"/>
     </row>
     <row r="523">
-      <c r="C523" s="17"/>
+      <c r="C523" s="18"/>
       <c r="E523" s="10"/>
     </row>
     <row r="524">
-      <c r="C524" s="17"/>
+      <c r="C524" s="18"/>
       <c r="E524" s="10"/>
     </row>
     <row r="525">
-      <c r="C525" s="17"/>
+      <c r="C525" s="18"/>
       <c r="E525" s="10"/>
     </row>
     <row r="526">
-      <c r="C526" s="17"/>
+      <c r="C526" s="18"/>
       <c r="E526" s="10"/>
     </row>
     <row r="527">
-      <c r="C527" s="17"/>
+      <c r="C527" s="18"/>
       <c r="E527" s="10"/>
     </row>
     <row r="528">
-      <c r="C528" s="17"/>
+      <c r="C528" s="18"/>
       <c r="E528" s="10"/>
     </row>
     <row r="529">
-      <c r="C529" s="17"/>
+      <c r="C529" s="18"/>
       <c r="E529" s="10"/>
     </row>
     <row r="530">
-      <c r="C530" s="17"/>
+      <c r="C530" s="18"/>
       <c r="E530" s="10"/>
     </row>
     <row r="531">
-      <c r="C531" s="17"/>
+      <c r="C531" s="18"/>
       <c r="E531" s="10"/>
     </row>
     <row r="532">
-      <c r="C532" s="17"/>
+      <c r="C532" s="18"/>
       <c r="E532" s="10"/>
     </row>
     <row r="533">
-      <c r="C533" s="17"/>
+      <c r="C533" s="18"/>
       <c r="E533" s="10"/>
     </row>
     <row r="534">
-      <c r="C534" s="17"/>
+      <c r="C534" s="18"/>
       <c r="E534" s="10"/>
     </row>
     <row r="535">
-      <c r="C535" s="17"/>
+      <c r="C535" s="18"/>
       <c r="E535" s="10"/>
     </row>
     <row r="536">
-      <c r="C536" s="17"/>
+      <c r="C536" s="18"/>
       <c r="E536" s="10"/>
     </row>
     <row r="537">
-      <c r="C537" s="17"/>
+      <c r="C537" s="18"/>
       <c r="E537" s="10"/>
     </row>
     <row r="538">
-      <c r="C538" s="17"/>
+      <c r="C538" s="18"/>
       <c r="E538" s="10"/>
     </row>
     <row r="539">
-      <c r="C539" s="17"/>
+      <c r="C539" s="18"/>
       <c r="E539" s="10"/>
     </row>
     <row r="540">
-      <c r="C540" s="17"/>
+      <c r="C540" s="18"/>
       <c r="E540" s="10"/>
     </row>
     <row r="541">
-      <c r="C541" s="17"/>
+      <c r="C541" s="18"/>
       <c r="E541" s="10"/>
     </row>
     <row r="542">
-      <c r="C542" s="17"/>
+      <c r="C542" s="18"/>
       <c r="E542" s="10"/>
     </row>
     <row r="543">
-      <c r="C543" s="17"/>
+      <c r="C543" s="18"/>
       <c r="E543" s="10"/>
     </row>
     <row r="544">
-      <c r="C544" s="17"/>
+      <c r="C544" s="18"/>
       <c r="E544" s="10"/>
     </row>
     <row r="545">
-      <c r="C545" s="17"/>
+      <c r="C545" s="18"/>
       <c r="E545" s="10"/>
     </row>
     <row r="546">
-      <c r="C546" s="17"/>
+      <c r="C546" s="18"/>
       <c r="E546" s="10"/>
     </row>
     <row r="547">
-      <c r="C547" s="17"/>
+      <c r="C547" s="18"/>
       <c r="E547" s="10"/>
     </row>
     <row r="548">
-      <c r="C548" s="17"/>
+      <c r="C548" s="18"/>
       <c r="E548" s="10"/>
     </row>
     <row r="549">
-      <c r="C549" s="17"/>
+      <c r="C549" s="18"/>
       <c r="E549" s="10"/>
     </row>
     <row r="550">
-      <c r="C550" s="17"/>
+      <c r="C550" s="18"/>
       <c r="E550" s="10"/>
     </row>
     <row r="551">
-      <c r="C551" s="17"/>
+      <c r="C551" s="18"/>
       <c r="E551" s="10"/>
     </row>
     <row r="552">
-      <c r="C552" s="17"/>
+      <c r="C552" s="18"/>
       <c r="E552" s="10"/>
     </row>
     <row r="553">
-      <c r="C553" s="17"/>
+      <c r="C553" s="18"/>
       <c r="E553" s="10"/>
     </row>
     <row r="554">
-      <c r="C554" s="17"/>
+      <c r="C554" s="18"/>
       <c r="E554" s="10"/>
     </row>
     <row r="555">
-      <c r="C555" s="17"/>
+      <c r="C555" s="18"/>
       <c r="E555" s="10"/>
     </row>
     <row r="556">
-      <c r="C556" s="17"/>
+      <c r="C556" s="18"/>
       <c r="E556" s="10"/>
     </row>
     <row r="557">
-      <c r="C557" s="17"/>
+      <c r="C557" s="18"/>
       <c r="E557" s="10"/>
     </row>
     <row r="558">
-      <c r="C558" s="17"/>
+      <c r="C558" s="18"/>
       <c r="E558" s="10"/>
     </row>
     <row r="559">
-      <c r="C559" s="17"/>
+      <c r="C559" s="18"/>
       <c r="E559" s="10"/>
     </row>
     <row r="560">
-      <c r="C560" s="17"/>
+      <c r="C560" s="18"/>
       <c r="E560" s="10"/>
     </row>
     <row r="561">
-      <c r="C561" s="17"/>
+      <c r="C561" s="18"/>
       <c r="E561" s="10"/>
     </row>
     <row r="562">
-      <c r="C562" s="17"/>
+      <c r="C562" s="18"/>
       <c r="E562" s="10"/>
     </row>
     <row r="563">
-      <c r="C563" s="17"/>
+      <c r="C563" s="18"/>
       <c r="E563" s="10"/>
     </row>
     <row r="564">
-      <c r="C564" s="17"/>
+      <c r="C564" s="18"/>
       <c r="E564" s="10"/>
     </row>
     <row r="565">
-      <c r="C565" s="17"/>
+      <c r="C565" s="18"/>
       <c r="E565" s="10"/>
     </row>
     <row r="566">
-      <c r="C566" s="17"/>
+      <c r="C566" s="18"/>
       <c r="E566" s="10"/>
     </row>
     <row r="567">
-      <c r="C567" s="17"/>
+      <c r="C567" s="18"/>
       <c r="E567" s="10"/>
     </row>
     <row r="568">
-      <c r="C568" s="17"/>
+      <c r="C568" s="18"/>
       <c r="E568" s="10"/>
     </row>
     <row r="569">
-      <c r="C569" s="17"/>
+      <c r="C569" s="18"/>
       <c r="E569" s="10"/>
     </row>
     <row r="570">
-      <c r="C570" s="17"/>
+      <c r="C570" s="18"/>
       <c r="E570" s="10"/>
     </row>
     <row r="571">
-      <c r="C571" s="17"/>
+      <c r="C571" s="18"/>
       <c r="E571" s="10"/>
     </row>
     <row r="572">
-      <c r="C572" s="17"/>
+      <c r="C572" s="18"/>
       <c r="E572" s="10"/>
     </row>
     <row r="573">
-      <c r="C573" s="17"/>
+      <c r="C573" s="18"/>
       <c r="E573" s="10"/>
     </row>
     <row r="574">
-      <c r="C574" s="17"/>
+      <c r="C574" s="18"/>
       <c r="E574" s="10"/>
     </row>
     <row r="575">
-      <c r="C575" s="17"/>
+      <c r="C575" s="18"/>
       <c r="E575" s="10"/>
     </row>
     <row r="576">
-      <c r="C576" s="17"/>
+      <c r="C576" s="18"/>
       <c r="E576" s="10"/>
     </row>
     <row r="577">
-      <c r="C577" s="17"/>
+      <c r="C577" s="18"/>
       <c r="E577" s="10"/>
     </row>
     <row r="578">
-      <c r="C578" s="17"/>
+      <c r="C578" s="18"/>
       <c r="E578" s="10"/>
     </row>
     <row r="579">
-      <c r="C579" s="17"/>
+      <c r="C579" s="18"/>
       <c r="E579" s="10"/>
     </row>
     <row r="580">
-      <c r="C580" s="17"/>
+      <c r="C580" s="18"/>
       <c r="E580" s="10"/>
     </row>
     <row r="581">
-      <c r="C581" s="17"/>
+      <c r="C581" s="18"/>
       <c r="E581" s="10"/>
     </row>
     <row r="582">
-      <c r="C582" s="17"/>
+      <c r="C582" s="18"/>
       <c r="E582" s="10"/>
     </row>
     <row r="583">
-      <c r="C583" s="17"/>
+      <c r="C583" s="18"/>
       <c r="E583" s="10"/>
     </row>
     <row r="584">
-      <c r="C584" s="17"/>
+      <c r="C584" s="18"/>
       <c r="E584" s="10"/>
     </row>
     <row r="585">
-      <c r="C585" s="17"/>
+      <c r="C585" s="18"/>
       <c r="E585" s="10"/>
     </row>
     <row r="586">
-      <c r="C586" s="17"/>
+      <c r="C586" s="18"/>
       <c r="E586" s="10"/>
     </row>
     <row r="587">
-      <c r="C587" s="17"/>
+      <c r="C587" s="18"/>
       <c r="E587" s="10"/>
     </row>
     <row r="588">
-      <c r="C588" s="17"/>
+      <c r="C588" s="18"/>
       <c r="E588" s="10"/>
     </row>
     <row r="589">
-      <c r="C589" s="17"/>
+      <c r="C589" s="18"/>
       <c r="E589" s="10"/>
     </row>
     <row r="590">
-      <c r="C590" s="17"/>
+      <c r="C590" s="18"/>
       <c r="E590" s="10"/>
     </row>
     <row r="591">
-      <c r="C591" s="17"/>
+      <c r="C591" s="18"/>
       <c r="E591" s="10"/>
     </row>
     <row r="592">
-      <c r="C592" s="17"/>
+      <c r="C592" s="18"/>
       <c r="E592" s="10"/>
     </row>
     <row r="593">
-      <c r="C593" s="17"/>
+      <c r="C593" s="18"/>
       <c r="E593" s="10"/>
     </row>
     <row r="594">
-      <c r="C594" s="17"/>
+      <c r="C594" s="18"/>
       <c r="E594" s="10"/>
     </row>
     <row r="595">
-      <c r="C595" s="17"/>
+      <c r="C595" s="18"/>
       <c r="E595" s="10"/>
     </row>
     <row r="596">
-      <c r="C596" s="17"/>
+      <c r="C596" s="18"/>
       <c r="E596" s="10"/>
     </row>
     <row r="597">
-      <c r="C597" s="17"/>
+      <c r="C597" s="18"/>
       <c r="E597" s="10"/>
     </row>
     <row r="598">
-      <c r="C598" s="17"/>
+      <c r="C598" s="18"/>
       <c r="E598" s="10"/>
     </row>
     <row r="599">
-      <c r="C599" s="17"/>
+      <c r="C599" s="18"/>
       <c r="E599" s="10"/>
     </row>
     <row r="600">
-      <c r="C600" s="17"/>
+      <c r="C600" s="18"/>
       <c r="E600" s="10"/>
     </row>
     <row r="601">
-      <c r="C601" s="17"/>
+      <c r="C601" s="18"/>
       <c r="E601" s="10"/>
     </row>
     <row r="602">
-      <c r="C602" s="17"/>
+      <c r="C602" s="18"/>
       <c r="E602" s="10"/>
     </row>
     <row r="603">
-      <c r="C603" s="17"/>
+      <c r="C603" s="18"/>
       <c r="E603" s="10"/>
     </row>
     <row r="604">
-      <c r="C604" s="17"/>
+      <c r="C604" s="18"/>
       <c r="E604" s="10"/>
     </row>
     <row r="605">
-      <c r="C605" s="17"/>
+      <c r="C605" s="18"/>
       <c r="E605" s="10"/>
     </row>
     <row r="606">
-      <c r="C606" s="17"/>
+      <c r="C606" s="18"/>
       <c r="E606" s="10"/>
     </row>
     <row r="607">
-      <c r="C607" s="17"/>
+      <c r="C607" s="18"/>
       <c r="E607" s="10"/>
     </row>
     <row r="608">
-      <c r="C608" s="17"/>
+      <c r="C608" s="18"/>
       <c r="E608" s="10"/>
     </row>
     <row r="609">
-      <c r="C609" s="17"/>
+      <c r="C609" s="18"/>
       <c r="E609" s="10"/>
     </row>
     <row r="610">
-      <c r="C610" s="17"/>
+      <c r="C610" s="18"/>
       <c r="E610" s="10"/>
     </row>
     <row r="611">
-      <c r="C611" s="17"/>
+      <c r="C611" s="18"/>
       <c r="E611" s="10"/>
     </row>
     <row r="612">
-      <c r="C612" s="17"/>
+      <c r="C612" s="18"/>
       <c r="E612" s="10"/>
     </row>
     <row r="613">
-      <c r="C613" s="17"/>
+      <c r="C613" s="18"/>
       <c r="E613" s="10"/>
     </row>
     <row r="614">
-      <c r="C614" s="17"/>
+      <c r="C614" s="18"/>
       <c r="E614" s="10"/>
     </row>
     <row r="615">
-      <c r="C615" s="17"/>
+      <c r="C615" s="18"/>
       <c r="E615" s="10"/>
     </row>
     <row r="616">
-      <c r="C616" s="17"/>
+      <c r="C616" s="18"/>
       <c r="E616" s="10"/>
     </row>
     <row r="617">
-      <c r="C617" s="17"/>
+      <c r="C617" s="18"/>
       <c r="E617" s="10"/>
     </row>
     <row r="618">
-      <c r="C618" s="17"/>
+      <c r="C618" s="18"/>
       <c r="E618" s="10"/>
     </row>
     <row r="619">
-      <c r="C619" s="17"/>
+      <c r="C619" s="18"/>
       <c r="E619" s="10"/>
     </row>
     <row r="620">
-      <c r="C620" s="17"/>
+      <c r="C620" s="18"/>
       <c r="E620" s="10"/>
     </row>
     <row r="621">
-      <c r="C621" s="17"/>
+      <c r="C621" s="18"/>
       <c r="E621" s="10"/>
     </row>
     <row r="622">
-      <c r="C622" s="17"/>
+      <c r="C622" s="18"/>
       <c r="E622" s="10"/>
     </row>
     <row r="623">
-      <c r="C623" s="17"/>
+      <c r="C623" s="18"/>
       <c r="E623" s="10"/>
     </row>
     <row r="624">
-      <c r="C624" s="17"/>
+      <c r="C624" s="18"/>
       <c r="E624" s="10"/>
     </row>
     <row r="625">
-      <c r="C625" s="17"/>
+      <c r="C625" s="18"/>
       <c r="E625" s="10"/>
     </row>
     <row r="626">
-      <c r="C626" s="17"/>
+      <c r="C626" s="18"/>
       <c r="E626" s="10"/>
     </row>
     <row r="627">
-      <c r="C627" s="17"/>
+      <c r="C627" s="18"/>
       <c r="E627" s="10"/>
     </row>
     <row r="628">
-      <c r="C628" s="17"/>
+      <c r="C628" s="18"/>
       <c r="E628" s="10"/>
     </row>
     <row r="629">
-      <c r="C629" s="17"/>
+      <c r="C629" s="18"/>
       <c r="E629" s="10"/>
     </row>
     <row r="630">
-      <c r="C630" s="17"/>
+      <c r="C630" s="18"/>
       <c r="E630" s="10"/>
     </row>
     <row r="631">
-      <c r="C631" s="17"/>
+      <c r="C631" s="18"/>
       <c r="E631" s="10"/>
     </row>
     <row r="632">
-      <c r="C632" s="17"/>
+      <c r="C632" s="18"/>
       <c r="E632" s="10"/>
     </row>
     <row r="633">
-      <c r="C633" s="17"/>
+      <c r="C633" s="18"/>
       <c r="E633" s="10"/>
     </row>
     <row r="634">
-      <c r="C634" s="17"/>
+      <c r="C634" s="18"/>
       <c r="E634" s="10"/>
     </row>
     <row r="635">
-      <c r="C635" s="17"/>
+      <c r="C635" s="18"/>
       <c r="E635" s="10"/>
     </row>
     <row r="636">
-      <c r="C636" s="17"/>
+      <c r="C636" s="18"/>
       <c r="E636" s="10"/>
     </row>
     <row r="637">
-      <c r="C637" s="17"/>
+      <c r="C637" s="18"/>
       <c r="E637" s="10"/>
     </row>
     <row r="638">
-      <c r="C638" s="17"/>
+      <c r="C638" s="18"/>
       <c r="E638" s="10"/>
     </row>
     <row r="639">
-      <c r="C639" s="17"/>
+      <c r="C639" s="18"/>
       <c r="E639" s="10"/>
     </row>
     <row r="640">
-      <c r="C640" s="17"/>
+      <c r="C640" s="18"/>
       <c r="E640" s="10"/>
     </row>
     <row r="641">
-      <c r="C641" s="17"/>
+      <c r="C641" s="18"/>
       <c r="E641" s="10"/>
     </row>
     <row r="642">
-      <c r="C642" s="17"/>
+      <c r="C642" s="18"/>
       <c r="E642" s="10"/>
     </row>
     <row r="643">
-      <c r="C643" s="17"/>
+      <c r="C643" s="18"/>
       <c r="E643" s="10"/>
     </row>
     <row r="644">
-      <c r="C644" s="17"/>
+      <c r="C644" s="18"/>
       <c r="E644" s="10"/>
     </row>
     <row r="645">
-      <c r="C645" s="17"/>
+      <c r="C645" s="18"/>
       <c r="E645" s="10"/>
     </row>
     <row r="646">
-      <c r="C646" s="17"/>
+      <c r="C646" s="18"/>
       <c r="E646" s="10"/>
     </row>
     <row r="647">
-      <c r="C647" s="17"/>
+      <c r="C647" s="18"/>
       <c r="E647" s="10"/>
     </row>
     <row r="648">
-      <c r="C648" s="17"/>
+      <c r="C648" s="18"/>
       <c r="E648" s="10"/>
     </row>
     <row r="649">
-      <c r="C649" s="17"/>
+      <c r="C649" s="18"/>
       <c r="E649" s="10"/>
     </row>
     <row r="650">
-      <c r="C650" s="17"/>
+      <c r="C650" s="18"/>
       <c r="E650" s="10"/>
     </row>
     <row r="651">
-      <c r="C651" s="17"/>
+      <c r="C651" s="18"/>
       <c r="E651" s="10"/>
     </row>
     <row r="652">
-      <c r="C652" s="17"/>
+      <c r="C652" s="18"/>
       <c r="E652" s="10"/>
     </row>
     <row r="653">
-      <c r="C653" s="17"/>
+      <c r="C653" s="18"/>
       <c r="E653" s="10"/>
     </row>
     <row r="654">
-      <c r="C654" s="17"/>
+      <c r="C654" s="18"/>
       <c r="E654" s="10"/>
     </row>
     <row r="655">
-      <c r="C655" s="17"/>
+      <c r="C655" s="18"/>
       <c r="E655" s="10"/>
     </row>
     <row r="656">
-      <c r="C656" s="17"/>
+      <c r="C656" s="18"/>
       <c r="E656" s="10"/>
     </row>
     <row r="657">
-      <c r="C657" s="17"/>
+      <c r="C657" s="18"/>
       <c r="E657" s="10"/>
     </row>
     <row r="658">
-      <c r="C658" s="17"/>
+      <c r="C658" s="18"/>
       <c r="E658" s="10"/>
     </row>
     <row r="659">
-      <c r="C659" s="17"/>
+      <c r="C659" s="18"/>
       <c r="E659" s="10"/>
     </row>
     <row r="660">
-      <c r="C660" s="17"/>
+      <c r="C660" s="18"/>
       <c r="E660" s="10"/>
     </row>
     <row r="661">
-      <c r="C661" s="17"/>
+      <c r="C661" s="18"/>
       <c r="E661" s="10"/>
     </row>
     <row r="662">
-      <c r="C662" s="17"/>
+      <c r="C662" s="18"/>
       <c r="E662" s="10"/>
     </row>
     <row r="663">
-      <c r="C663" s="17"/>
+      <c r="C663" s="18"/>
       <c r="E663" s="10"/>
     </row>
     <row r="664">
-      <c r="C664" s="17"/>
+      <c r="C664" s="18"/>
       <c r="E664" s="10"/>
     </row>
     <row r="665">
-      <c r="C665" s="17"/>
+      <c r="C665" s="18"/>
       <c r="E665" s="10"/>
     </row>
     <row r="666">
-      <c r="C666" s="17"/>
+      <c r="C666" s="18"/>
       <c r="E666" s="10"/>
     </row>
     <row r="667">
-      <c r="C667" s="17"/>
+      <c r="C667" s="18"/>
       <c r="E667" s="10"/>
     </row>
     <row r="668">
-      <c r="C668" s="17"/>
+      <c r="C668" s="18"/>
       <c r="E668" s="10"/>
     </row>
     <row r="669">
-      <c r="C669" s="17"/>
+      <c r="C669" s="18"/>
       <c r="E669" s="10"/>
     </row>
     <row r="670">
-      <c r="C670" s="17"/>
+      <c r="C670" s="18"/>
       <c r="E670" s="10"/>
     </row>
     <row r="671">
-      <c r="C671" s="17"/>
+      <c r="C671" s="18"/>
       <c r="E671" s="10"/>
     </row>
     <row r="672">
-      <c r="C672" s="17"/>
+      <c r="C672" s="18"/>
       <c r="E672" s="10"/>
     </row>
     <row r="673">
-      <c r="C673" s="17"/>
+      <c r="C673" s="18"/>
       <c r="E673" s="10"/>
     </row>
     <row r="674">
-      <c r="C674" s="17"/>
+      <c r="C674" s="18"/>
       <c r="E674" s="10"/>
     </row>
     <row r="675">
-      <c r="C675" s="17"/>
+      <c r="C675" s="18"/>
       <c r="E675" s="10"/>
     </row>
     <row r="676">
-      <c r="C676" s="17"/>
+      <c r="C676" s="18"/>
       <c r="E676" s="10"/>
     </row>
     <row r="677">
-      <c r="C677" s="17"/>
+      <c r="C677" s="18"/>
       <c r="E677" s="10"/>
     </row>
     <row r="678">
-      <c r="C678" s="17"/>
+      <c r="C678" s="18"/>
       <c r="E678" s="10"/>
     </row>
     <row r="679">
-      <c r="C679" s="17"/>
+      <c r="C679" s="18"/>
       <c r="E679" s="10"/>
     </row>
     <row r="680">
-      <c r="C680" s="17"/>
+      <c r="C680" s="18"/>
       <c r="E680" s="10"/>
     </row>
     <row r="681">
-      <c r="C681" s="17"/>
+      <c r="C681" s="18"/>
       <c r="E681" s="10"/>
     </row>
     <row r="682">
-      <c r="C682" s="17"/>
+      <c r="C682" s="18"/>
       <c r="E682" s="10"/>
     </row>
     <row r="683">
-      <c r="C683" s="17"/>
+      <c r="C683" s="18"/>
       <c r="E683" s="10"/>
     </row>
     <row r="684">
-      <c r="C684" s="17"/>
+      <c r="C684" s="18"/>
       <c r="E684" s="10"/>
     </row>
     <row r="685">
-      <c r="C685" s="17"/>
+      <c r="C685" s="18"/>
       <c r="E685" s="10"/>
     </row>
     <row r="686">
-      <c r="C686" s="17"/>
+      <c r="C686" s="18"/>
       <c r="E686" s="10"/>
     </row>
     <row r="687">
-      <c r="C687" s="17"/>
+      <c r="C687" s="18"/>
       <c r="E687" s="10"/>
     </row>
     <row r="688">
-      <c r="C688" s="17"/>
+      <c r="C688" s="18"/>
       <c r="E688" s="10"/>
     </row>
     <row r="689">
-      <c r="C689" s="17"/>
+      <c r="C689" s="18"/>
       <c r="E689" s="10"/>
     </row>
     <row r="690">
-      <c r="C690" s="17"/>
+      <c r="C690" s="18"/>
       <c r="E690" s="10"/>
     </row>
     <row r="691">
-      <c r="C691" s="17"/>
+      <c r="C691" s="18"/>
       <c r="E691" s="10"/>
     </row>
     <row r="692">
-      <c r="C692" s="17"/>
+      <c r="C692" s="18"/>
       <c r="E692" s="10"/>
     </row>
     <row r="693">
-      <c r="C693" s="17"/>
+      <c r="C693" s="18"/>
       <c r="E693" s="10"/>
     </row>
     <row r="694">
-      <c r="C694" s="17"/>
+      <c r="C694" s="18"/>
       <c r="E694" s="10"/>
     </row>
     <row r="695">
-      <c r="C695" s="17"/>
+      <c r="C695" s="18"/>
       <c r="E695" s="10"/>
     </row>
     <row r="696">
-      <c r="C696" s="17"/>
+      <c r="C696" s="18"/>
       <c r="E696" s="10"/>
     </row>
     <row r="697">
-      <c r="C697" s="17"/>
+      <c r="C697" s="18"/>
       <c r="E697" s="10"/>
     </row>
     <row r="698">
-      <c r="C698" s="17"/>
+      <c r="C698" s="18"/>
       <c r="E698" s="10"/>
     </row>
     <row r="699">
-      <c r="C699" s="17"/>
+      <c r="C699" s="18"/>
       <c r="E699" s="10"/>
     </row>
     <row r="700">
-      <c r="C700" s="17"/>
+      <c r="C700" s="18"/>
       <c r="E700" s="10"/>
     </row>
     <row r="701">
-      <c r="C701" s="17"/>
+      <c r="C701" s="18"/>
       <c r="E701" s="10"/>
     </row>
     <row r="702">
-      <c r="C702" s="17"/>
+      <c r="C702" s="18"/>
       <c r="E702" s="10"/>
     </row>
     <row r="703">
-      <c r="C703" s="17"/>
+      <c r="C703" s="18"/>
       <c r="E703" s="10"/>
     </row>
     <row r="704">
-      <c r="C704" s="17"/>
+      <c r="C704" s="18"/>
       <c r="E704" s="10"/>
     </row>
     <row r="705">
-      <c r="C705" s="17"/>
+      <c r="C705" s="18"/>
       <c r="E705" s="10"/>
     </row>
     <row r="706">
-      <c r="C706" s="17"/>
+      <c r="C706" s="18"/>
       <c r="E706" s="10"/>
     </row>
     <row r="707">
-      <c r="C707" s="17"/>
+      <c r="C707" s="18"/>
       <c r="E707" s="10"/>
     </row>
     <row r="708">
-      <c r="C708" s="17"/>
+      <c r="C708" s="18"/>
       <c r="E708" s="10"/>
     </row>
     <row r="709">
-      <c r="C709" s="17"/>
+      <c r="C709" s="18"/>
       <c r="E709" s="10"/>
     </row>
     <row r="710">
-      <c r="C710" s="17"/>
+      <c r="C710" s="18"/>
       <c r="E710" s="10"/>
     </row>
     <row r="711">
-      <c r="C711" s="17"/>
+      <c r="C711" s="18"/>
       <c r="E711" s="10"/>
     </row>
     <row r="712">
-      <c r="C712" s="17"/>
+      <c r="C712" s="18"/>
       <c r="E712" s="10"/>
     </row>
     <row r="713">
-      <c r="C713" s="17"/>
+      <c r="C713" s="18"/>
       <c r="E713" s="10"/>
     </row>
     <row r="714">
-      <c r="C714" s="17"/>
+      <c r="C714" s="18"/>
       <c r="E714" s="10"/>
     </row>
     <row r="715">
-      <c r="C715" s="17"/>
+      <c r="C715" s="18"/>
       <c r="E715" s="10"/>
     </row>
     <row r="716">
-      <c r="C716" s="17"/>
+      <c r="C716" s="18"/>
       <c r="E716" s="10"/>
     </row>
     <row r="717">
-      <c r="C717" s="17"/>
+      <c r="C717" s="18"/>
       <c r="E717" s="10"/>
     </row>
     <row r="718">
-      <c r="C718" s="17"/>
+      <c r="C718" s="18"/>
       <c r="E718" s="10"/>
     </row>
     <row r="719">
-      <c r="C719" s="17"/>
+      <c r="C719" s="18"/>
       <c r="E719" s="10"/>
     </row>
     <row r="720">
-      <c r="C720" s="17"/>
+      <c r="C720" s="18"/>
       <c r="E720" s="10"/>
     </row>
     <row r="721">
-      <c r="C721" s="17"/>
+      <c r="C721" s="18"/>
       <c r="E721" s="10"/>
     </row>
     <row r="722">
-      <c r="C722" s="17"/>
+      <c r="C722" s="18"/>
       <c r="E722" s="10"/>
     </row>
     <row r="723">
-      <c r="C723" s="17"/>
+      <c r="C723" s="18"/>
       <c r="E723" s="10"/>
     </row>
     <row r="724">
-      <c r="C724" s="17"/>
+      <c r="C724" s="18"/>
       <c r="E724" s="10"/>
     </row>
     <row r="725">
-      <c r="C725" s="17"/>
+      <c r="C725" s="18"/>
       <c r="E725" s="10"/>
     </row>
     <row r="726">
-      <c r="C726" s="17"/>
+      <c r="C726" s="18"/>
       <c r="E726" s="10"/>
     </row>
     <row r="727">
-      <c r="C727" s="17"/>
+      <c r="C727" s="18"/>
       <c r="E727" s="10"/>
     </row>
     <row r="728">
-      <c r="C728" s="17"/>
+      <c r="C728" s="18"/>
       <c r="E728" s="10"/>
     </row>
     <row r="729">
-      <c r="C729" s="17"/>
+      <c r="C729" s="18"/>
       <c r="E729" s="10"/>
     </row>
     <row r="730">
-      <c r="C730" s="17"/>
+      <c r="C730" s="18"/>
       <c r="E730" s="10"/>
     </row>
     <row r="731">
-      <c r="C731" s="17"/>
+      <c r="C731" s="18"/>
       <c r="E731" s="10"/>
     </row>
     <row r="732">
-      <c r="C732" s="17"/>
+      <c r="C732" s="18"/>
       <c r="E732" s="10"/>
     </row>
     <row r="733">
-      <c r="C733" s="17"/>
+      <c r="C733" s="18"/>
       <c r="E733" s="10"/>
     </row>
     <row r="734">
-      <c r="C734" s="17"/>
+      <c r="C734" s="18"/>
       <c r="E734" s="10"/>
     </row>
     <row r="735">
-      <c r="C735" s="17"/>
+      <c r="C735" s="18"/>
       <c r="E735" s="10"/>
     </row>
     <row r="736">
-      <c r="C736" s="17"/>
+      <c r="C736" s="18"/>
       <c r="E736" s="10"/>
     </row>
     <row r="737">
-      <c r="C737" s="17"/>
+      <c r="C737" s="18"/>
       <c r="E737" s="10"/>
     </row>
     <row r="738">
-      <c r="C738" s="17"/>
+      <c r="C738" s="18"/>
       <c r="E738" s="10"/>
     </row>
     <row r="739">
-      <c r="C739" s="17"/>
+      <c r="C739" s="18"/>
       <c r="E739" s="10"/>
     </row>
     <row r="740">
-      <c r="C740" s="17"/>
+      <c r="C740" s="18"/>
       <c r="E740" s="10"/>
     </row>
     <row r="741">
-      <c r="C741" s="17"/>
+      <c r="C741" s="18"/>
       <c r="E741" s="10"/>
     </row>
     <row r="742">
-      <c r="C742" s="17"/>
+      <c r="C742" s="18"/>
       <c r="E742" s="10"/>
     </row>
     <row r="743">
-      <c r="C743" s="17"/>
+      <c r="C743" s="18"/>
       <c r="E743" s="10"/>
     </row>
     <row r="744">
-      <c r="C744" s="17"/>
+      <c r="C744" s="18"/>
       <c r="E744" s="10"/>
     </row>
     <row r="745">
-      <c r="C745" s="17"/>
+      <c r="C745" s="18"/>
       <c r="E745" s="10"/>
     </row>
     <row r="746">
-      <c r="C746" s="17"/>
+      <c r="C746" s="18"/>
       <c r="E746" s="10"/>
     </row>
     <row r="747">
-      <c r="C747" s="17"/>
+      <c r="C747" s="18"/>
       <c r="E747" s="10"/>
     </row>
     <row r="748">
-      <c r="C748" s="17"/>
+      <c r="C748" s="18"/>
       <c r="E748" s="10"/>
     </row>
     <row r="749">
-      <c r="C749" s="17"/>
+      <c r="C749" s="18"/>
       <c r="E749" s="10"/>
     </row>
     <row r="750">
-      <c r="C750" s="17"/>
+      <c r="C750" s="18"/>
       <c r="E750" s="10"/>
     </row>
     <row r="751">
-      <c r="C751" s="17"/>
+      <c r="C751" s="18"/>
       <c r="E751" s="10"/>
     </row>
     <row r="752">
-      <c r="C752" s="17"/>
+      <c r="C752" s="18"/>
       <c r="E752" s="10"/>
     </row>
     <row r="753">
-      <c r="C753" s="17"/>
+      <c r="C753" s="18"/>
       <c r="E753" s="10"/>
     </row>
     <row r="754">
-      <c r="C754" s="17"/>
+      <c r="C754" s="18"/>
       <c r="E754" s="10"/>
     </row>
     <row r="755">
-      <c r="C755" s="17"/>
+      <c r="C755" s="18"/>
       <c r="E755" s="10"/>
     </row>
     <row r="756">
-      <c r="C756" s="17"/>
+      <c r="C756" s="18"/>
       <c r="E756" s="10"/>
     </row>
     <row r="757">
-      <c r="C757" s="17"/>
+      <c r="C757" s="18"/>
       <c r="E757" s="10"/>
     </row>
     <row r="758">
-      <c r="C758" s="17"/>
+      <c r="C758" s="18"/>
       <c r="E758" s="10"/>
     </row>
     <row r="759">
-      <c r="C759" s="17"/>
+      <c r="C759" s="18"/>
       <c r="E759" s="10"/>
     </row>
     <row r="760">
-      <c r="C760" s="17"/>
+      <c r="C760" s="18"/>
       <c r="E760" s="10"/>
     </row>
     <row r="761">
-      <c r="C761" s="17"/>
+      <c r="C761" s="18"/>
       <c r="E761" s="10"/>
     </row>
     <row r="762">
-      <c r="C762" s="17"/>
+      <c r="C762" s="18"/>
       <c r="E762" s="10"/>
     </row>
     <row r="763">
-      <c r="C763" s="17"/>
+      <c r="C763" s="18"/>
       <c r="E763" s="10"/>
     </row>
     <row r="764">
-      <c r="C764" s="17"/>
+      <c r="C764" s="18"/>
       <c r="E764" s="10"/>
     </row>
     <row r="765">
-      <c r="C765" s="17"/>
+      <c r="C765" s="18"/>
       <c r="E765" s="10"/>
     </row>
     <row r="766">
-      <c r="C766" s="17"/>
+      <c r="C766" s="18"/>
       <c r="E766" s="10"/>
     </row>
     <row r="767">
-      <c r="C767" s="17"/>
+      <c r="C767" s="18"/>
       <c r="E767" s="10"/>
     </row>
     <row r="768">
-      <c r="C768" s="17"/>
+      <c r="C768" s="18"/>
       <c r="E768" s="10"/>
     </row>
     <row r="769">
-      <c r="C769" s="17"/>
+      <c r="C769" s="18"/>
       <c r="E769" s="10"/>
     </row>
     <row r="770">
-      <c r="C770" s="17"/>
+      <c r="C770" s="18"/>
       <c r="E770" s="10"/>
     </row>
     <row r="771">
-      <c r="C771" s="17"/>
+      <c r="C771" s="18"/>
       <c r="E771" s="10"/>
     </row>
     <row r="772">
-      <c r="C772" s="17"/>
+      <c r="C772" s="18"/>
       <c r="E772" s="10"/>
     </row>
     <row r="773">
-      <c r="C773" s="17"/>
+      <c r="C773" s="18"/>
       <c r="E773" s="10"/>
     </row>
     <row r="774">
-      <c r="C774" s="17"/>
+      <c r="C774" s="18"/>
       <c r="E774" s="10"/>
     </row>
     <row r="775">
-      <c r="C775" s="17"/>
+      <c r="C775" s="18"/>
       <c r="E775" s="10"/>
     </row>
     <row r="776">
-      <c r="C776" s="17"/>
+      <c r="C776" s="18"/>
       <c r="E776" s="10"/>
     </row>
     <row r="777">
-      <c r="C777" s="17"/>
+      <c r="C777" s="18"/>
       <c r="E777" s="10"/>
     </row>
     <row r="778">
-      <c r="C778" s="17"/>
+      <c r="C778" s="18"/>
       <c r="E778" s="10"/>
     </row>
     <row r="779">
-      <c r="C779" s="17"/>
+      <c r="C779" s="18"/>
       <c r="E779" s="10"/>
     </row>
     <row r="780">
-      <c r="C780" s="17"/>
+      <c r="C780" s="18"/>
       <c r="E780" s="10"/>
     </row>
     <row r="781">
-      <c r="C781" s="17"/>
+      <c r="C781" s="18"/>
       <c r="E781" s="10"/>
     </row>
     <row r="782">
-      <c r="C782" s="17"/>
+      <c r="C782" s="18"/>
       <c r="E782" s="10"/>
     </row>
     <row r="783">
-      <c r="C783" s="17"/>
+      <c r="C783" s="18"/>
       <c r="E783" s="10"/>
     </row>
     <row r="784">
-      <c r="C784" s="17"/>
+      <c r="C784" s="18"/>
       <c r="E784" s="10"/>
     </row>
     <row r="785">
-      <c r="C785" s="17"/>
+      <c r="C785" s="18"/>
       <c r="E785" s="10"/>
     </row>
     <row r="786">
-      <c r="C786" s="17"/>
+      <c r="C786" s="18"/>
       <c r="E786" s="10"/>
     </row>
     <row r="787">
-      <c r="C787" s="17"/>
+      <c r="C787" s="18"/>
       <c r="E787" s="10"/>
     </row>
     <row r="788">
-      <c r="C788" s="17"/>
+      <c r="C788" s="18"/>
       <c r="E788" s="10"/>
     </row>
     <row r="789">
-      <c r="C789" s="17"/>
+      <c r="C789" s="18"/>
       <c r="E789" s="10"/>
     </row>
     <row r="790">
-      <c r="C790" s="17"/>
+      <c r="C790" s="18"/>
       <c r="E790" s="10"/>
     </row>
     <row r="791">
-      <c r="C791" s="17"/>
+      <c r="C791" s="18"/>
       <c r="E791" s="10"/>
     </row>
     <row r="792">
-      <c r="C792" s="17"/>
+      <c r="C792" s="18"/>
       <c r="E792" s="10"/>
     </row>
     <row r="793">
-      <c r="C793" s="17"/>
+      <c r="C793" s="18"/>
       <c r="E793" s="10"/>
     </row>
     <row r="794">
-      <c r="C794" s="17"/>
+      <c r="C794" s="18"/>
       <c r="E794" s="10"/>
     </row>
     <row r="795">
-      <c r="C795" s="17"/>
+      <c r="C795" s="18"/>
       <c r="E795" s="10"/>
     </row>
     <row r="796">
-      <c r="C796" s="17"/>
+      <c r="C796" s="18"/>
       <c r="E796" s="10"/>
     </row>
     <row r="797">
-      <c r="C797" s="17"/>
+      <c r="C797" s="18"/>
       <c r="E797" s="10"/>
     </row>
     <row r="798">
-      <c r="C798" s="17"/>
+      <c r="C798" s="18"/>
       <c r="E798" s="10"/>
     </row>
     <row r="799">
-      <c r="C799" s="17"/>
+      <c r="C799" s="18"/>
       <c r="E799" s="10"/>
     </row>
     <row r="800">
-      <c r="C800" s="17"/>
+      <c r="C800" s="18"/>
       <c r="E800" s="10"/>
     </row>
     <row r="801">
-      <c r="C801" s="17"/>
+      <c r="C801" s="18"/>
       <c r="E801" s="10"/>
     </row>
     <row r="802">
-      <c r="C802" s="17"/>
+      <c r="C802" s="18"/>
       <c r="E802" s="10"/>
     </row>
     <row r="803">
-      <c r="C803" s="17"/>
+      <c r="C803" s="18"/>
       <c r="E803" s="10"/>
     </row>
     <row r="804">
-      <c r="C804" s="17"/>
+      <c r="C804" s="18"/>
       <c r="E804" s="10"/>
     </row>
     <row r="805">
-      <c r="C805" s="17"/>
+      <c r="C805" s="18"/>
       <c r="E805" s="10"/>
     </row>
     <row r="806">
-      <c r="C806" s="17"/>
+      <c r="C806" s="18"/>
       <c r="E806" s="10"/>
     </row>
     <row r="807">
-      <c r="C807" s="17"/>
+      <c r="C807" s="18"/>
       <c r="E807" s="10"/>
     </row>
     <row r="808">
-      <c r="C808" s="17"/>
+      <c r="C808" s="18"/>
       <c r="E808" s="10"/>
     </row>
     <row r="809">
-      <c r="C809" s="17"/>
+      <c r="C809" s="18"/>
       <c r="E809" s="10"/>
     </row>
     <row r="810">
-      <c r="C810" s="17"/>
+      <c r="C810" s="18"/>
       <c r="E810" s="10"/>
     </row>
     <row r="811">
-      <c r="C811" s="17"/>
+      <c r="C811" s="18"/>
       <c r="E811" s="10"/>
     </row>
     <row r="812">
-      <c r="C812" s="17"/>
+      <c r="C812" s="18"/>
       <c r="E812" s="10"/>
     </row>
     <row r="813">
-      <c r="C813" s="17"/>
+      <c r="C813" s="18"/>
       <c r="E813" s="10"/>
     </row>
     <row r="814">
-      <c r="C814" s="17"/>
+      <c r="C814" s="18"/>
       <c r="E814" s="10"/>
     </row>
     <row r="815">
-      <c r="C815" s="17"/>
+      <c r="C815" s="18"/>
       <c r="E815" s="10"/>
     </row>
     <row r="816">
-      <c r="C816" s="17"/>
+      <c r="C816" s="18"/>
       <c r="E816" s="10"/>
     </row>
     <row r="817">
-      <c r="C817" s="17"/>
+      <c r="C817" s="18"/>
       <c r="E817" s="10"/>
     </row>
     <row r="818">
-      <c r="C818" s="17"/>
+      <c r="C818" s="18"/>
       <c r="E818" s="10"/>
     </row>
     <row r="819">
-      <c r="C819" s="17"/>
+      <c r="C819" s="18"/>
       <c r="E819" s="10"/>
     </row>
     <row r="820">
-      <c r="C820" s="17"/>
+      <c r="C820" s="18"/>
       <c r="E820" s="10"/>
     </row>
     <row r="821">
-      <c r="C821" s="17"/>
+      <c r="C821" s="18"/>
       <c r="E821" s="10"/>
     </row>
     <row r="822">
-      <c r="C822" s="17"/>
+      <c r="C822" s="18"/>
       <c r="E822" s="10"/>
     </row>
     <row r="823">
-      <c r="C823" s="17"/>
+      <c r="C823" s="18"/>
       <c r="E823" s="10"/>
     </row>
     <row r="824">
-      <c r="C824" s="17"/>
+      <c r="C824" s="18"/>
       <c r="E824" s="10"/>
     </row>
     <row r="825">
-      <c r="C825" s="17"/>
+      <c r="C825" s="18"/>
       <c r="E825" s="10"/>
     </row>
     <row r="826">
-      <c r="C826" s="17"/>
+      <c r="C826" s="18"/>
       <c r="E826" s="10"/>
     </row>
     <row r="827">
-      <c r="C827" s="17"/>
+      <c r="C827" s="18"/>
       <c r="E827" s="10"/>
     </row>
     <row r="828">
-      <c r="C828" s="17"/>
+      <c r="C828" s="18"/>
       <c r="E828" s="10"/>
     </row>
     <row r="829">
-      <c r="C829" s="17"/>
+      <c r="C829" s="18"/>
       <c r="E829" s="10"/>
     </row>
     <row r="830">
-      <c r="C830" s="17"/>
+      <c r="C830" s="18"/>
       <c r="E830" s="10"/>
     </row>
     <row r="831">
-      <c r="C831" s="17"/>
+      <c r="C831" s="18"/>
       <c r="E831" s="10"/>
     </row>
     <row r="832">
-      <c r="C832" s="17"/>
+      <c r="C832" s="18"/>
       <c r="E832" s="10"/>
     </row>
     <row r="833">
-      <c r="C833" s="17"/>
+      <c r="C833" s="18"/>
       <c r="E833" s="10"/>
     </row>
     <row r="834">
-      <c r="C834" s="17"/>
+      <c r="C834" s="18"/>
       <c r="E834" s="10"/>
     </row>
     <row r="835">
-      <c r="C835" s="17"/>
+      <c r="C835" s="18"/>
       <c r="E835" s="10"/>
     </row>
     <row r="836">
-      <c r="C836" s="17"/>
+      <c r="C836" s="18"/>
       <c r="E836" s="10"/>
     </row>
     <row r="837">
-      <c r="C837" s="17"/>
+      <c r="C837" s="18"/>
       <c r="E837" s="10"/>
     </row>
     <row r="838">
-      <c r="C838" s="17"/>
+      <c r="C838" s="18"/>
       <c r="E838" s="10"/>
     </row>
     <row r="839">
-      <c r="C839" s="17"/>
+      <c r="C839" s="18"/>
       <c r="E839" s="10"/>
     </row>
     <row r="840">
-      <c r="C840" s="17"/>
+      <c r="C840" s="18"/>
       <c r="E840" s="10"/>
     </row>
     <row r="841">
-      <c r="C841" s="17"/>
+      <c r="C841" s="18"/>
       <c r="E841" s="10"/>
     </row>
     <row r="842">
-      <c r="C842" s="17"/>
+      <c r="C842" s="18"/>
       <c r="E842" s="10"/>
     </row>
     <row r="843">
-      <c r="C843" s="17"/>
+      <c r="C843" s="18"/>
       <c r="E843" s="10"/>
     </row>
     <row r="844">
-      <c r="C844" s="17"/>
+      <c r="C844" s="18"/>
       <c r="E844" s="10"/>
     </row>
     <row r="845">
-      <c r="C845" s="17"/>
+      <c r="C845" s="18"/>
       <c r="E845" s="10"/>
     </row>
     <row r="846">
-      <c r="C846" s="17"/>
+      <c r="C846" s="18"/>
       <c r="E846" s="10"/>
     </row>
     <row r="847">
-      <c r="C847" s="17"/>
+      <c r="C847" s="18"/>
       <c r="E847" s="10"/>
     </row>
     <row r="848">
-      <c r="C848" s="17"/>
+      <c r="C848" s="18"/>
       <c r="E848" s="10"/>
     </row>
     <row r="849">
-      <c r="C849" s="17"/>
+      <c r="C849" s="18"/>
       <c r="E849" s="10"/>
     </row>
     <row r="850">
-      <c r="C850" s="17"/>
+      <c r="C850" s="18"/>
       <c r="E850" s="10"/>
     </row>
     <row r="851">
-      <c r="C851" s="17"/>
+      <c r="C851" s="18"/>
       <c r="E851" s="10"/>
     </row>
     <row r="852">
-      <c r="C852" s="17"/>
+      <c r="C852" s="18"/>
       <c r="E852" s="10"/>
     </row>
     <row r="853">
-      <c r="C853" s="17"/>
+      <c r="C853" s="18"/>
       <c r="E853" s="10"/>
     </row>
     <row r="854">
-      <c r="C854" s="17"/>
+      <c r="C854" s="18"/>
       <c r="E854" s="10"/>
     </row>
     <row r="855">
-      <c r="C855" s="17"/>
+      <c r="C855" s="18"/>
       <c r="E855" s="10"/>
     </row>
     <row r="856">
-      <c r="C856" s="17"/>
+      <c r="C856" s="18"/>
       <c r="E856" s="10"/>
     </row>
     <row r="857">
-      <c r="C857" s="17"/>
+      <c r="C857" s="18"/>
       <c r="E857" s="10"/>
     </row>
     <row r="858">
-      <c r="C858" s="17"/>
+      <c r="C858" s="18"/>
       <c r="E858" s="10"/>
     </row>
     <row r="859">
-      <c r="C859" s="17"/>
+      <c r="C859" s="18"/>
       <c r="E859" s="10"/>
     </row>
     <row r="860">
-      <c r="C860" s="17"/>
+      <c r="C860" s="18"/>
       <c r="E860" s="10"/>
     </row>
     <row r="861">
-      <c r="C861" s="17"/>
+      <c r="C861" s="18"/>
       <c r="E861" s="10"/>
     </row>
     <row r="862">
-      <c r="C862" s="17"/>
+      <c r="C862" s="18"/>
       <c r="E862" s="10"/>
     </row>
     <row r="863">
-      <c r="C863" s="17"/>
+      <c r="C863" s="18"/>
       <c r="E863" s="10"/>
     </row>
     <row r="864">
-      <c r="C864" s="17"/>
+      <c r="C864" s="18"/>
       <c r="E864" s="10"/>
     </row>
     <row r="865">
-      <c r="C865" s="17"/>
+      <c r="C865" s="18"/>
       <c r="E865" s="10"/>
     </row>
     <row r="866">
-      <c r="C866" s="17"/>
+      <c r="C866" s="18"/>
       <c r="E866" s="10"/>
     </row>
     <row r="867">
-      <c r="C867" s="17"/>
+      <c r="C867" s="18"/>
       <c r="E867" s="10"/>
     </row>
     <row r="868">
-      <c r="C868" s="17"/>
+      <c r="C868" s="18"/>
       <c r="E868" s="10"/>
     </row>
     <row r="869">
-      <c r="C869" s="17"/>
+      <c r="C869" s="18"/>
       <c r="E869" s="10"/>
     </row>
     <row r="870">
-      <c r="C870" s="17"/>
+      <c r="C870" s="18"/>
       <c r="E870" s="10"/>
     </row>
     <row r="871">
-      <c r="C871" s="17"/>
+      <c r="C871" s="18"/>
       <c r="E871" s="10"/>
     </row>
     <row r="872">
-      <c r="C872" s="17"/>
+      <c r="C872" s="18"/>
       <c r="E872" s="10"/>
     </row>
     <row r="873">
-      <c r="C873" s="17"/>
+      <c r="C873" s="18"/>
       <c r="E873" s="10"/>
     </row>
     <row r="874">
-      <c r="C874" s="17"/>
+      <c r="C874" s="18"/>
       <c r="E874" s="10"/>
     </row>
     <row r="875">
-      <c r="C875" s="17"/>
+      <c r="C875" s="18"/>
       <c r="E875" s="10"/>
     </row>
     <row r="876">
-      <c r="C876" s="17"/>
+      <c r="C876" s="18"/>
       <c r="E876" s="10"/>
     </row>
     <row r="877">
-      <c r="C877" s="17"/>
+      <c r="C877" s="18"/>
       <c r="E877" s="10"/>
     </row>
     <row r="878">
-      <c r="C878" s="17"/>
+      <c r="C878" s="18"/>
       <c r="E878" s="10"/>
     </row>
     <row r="879">
-      <c r="C879" s="17"/>
+      <c r="C879" s="18"/>
       <c r="E879" s="10"/>
     </row>
     <row r="880">
-      <c r="C880" s="17"/>
+      <c r="C880" s="18"/>
       <c r="E880" s="10"/>
     </row>
     <row r="881">
-      <c r="C881" s="17"/>
+      <c r="C881" s="18"/>
       <c r="E881" s="10"/>
     </row>
     <row r="882">
-      <c r="C882" s="17"/>
+      <c r="C882" s="18"/>
       <c r="E882" s="10"/>
     </row>
     <row r="883">
-      <c r="C883" s="17"/>
+      <c r="C883" s="18"/>
       <c r="E883" s="10"/>
     </row>
     <row r="884">
-      <c r="C884" s="17"/>
+      <c r="C884" s="18"/>
       <c r="E884" s="10"/>
     </row>
     <row r="885">
-      <c r="C885" s="17"/>
+      <c r="C885" s="18"/>
       <c r="E885" s="10"/>
     </row>
     <row r="886">
-      <c r="C886" s="17"/>
+      <c r="C886" s="18"/>
       <c r="E886" s="10"/>
     </row>
     <row r="887">
-      <c r="C887" s="17"/>
+      <c r="C887" s="18"/>
       <c r="E887" s="10"/>
     </row>
     <row r="888">
-      <c r="C888" s="17"/>
+      <c r="C888" s="18"/>
       <c r="E888" s="10"/>
     </row>
     <row r="889">
-      <c r="C889" s="17"/>
+      <c r="C889" s="18"/>
       <c r="E889" s="10"/>
     </row>
     <row r="890">
-      <c r="C890" s="17"/>
+      <c r="C890" s="18"/>
       <c r="E890" s="10"/>
     </row>
     <row r="891">
-      <c r="C891" s="17"/>
+      <c r="C891" s="18"/>
       <c r="E891" s="10"/>
     </row>
     <row r="892">
-      <c r="C892" s="17"/>
+      <c r="C892" s="18"/>
       <c r="E892" s="10"/>
     </row>
     <row r="893">
-      <c r="C893" s="17"/>
+      <c r="C893" s="18"/>
       <c r="E893" s="10"/>
     </row>
     <row r="894">
-      <c r="C894" s="17"/>
+      <c r="C894" s="18"/>
       <c r="E894" s="10"/>
     </row>
     <row r="895">
-      <c r="C895" s="17"/>
+      <c r="C895" s="18"/>
       <c r="E895" s="10"/>
     </row>
     <row r="896">
-      <c r="C896" s="17"/>
+      <c r="C896" s="18"/>
       <c r="E896" s="10"/>
     </row>
     <row r="897">
-      <c r="C897" s="17"/>
+      <c r="C897" s="18"/>
       <c r="E897" s="10"/>
     </row>
     <row r="898">
-      <c r="C898" s="17"/>
+      <c r="C898" s="18"/>
       <c r="E898" s="10"/>
     </row>
     <row r="899">
-      <c r="C899" s="17"/>
+      <c r="C899" s="18"/>
       <c r="E899" s="10"/>
     </row>
     <row r="900">
-      <c r="C900" s="17"/>
+      <c r="C900" s="18"/>
       <c r="E900" s="10"/>
     </row>
     <row r="901">
-      <c r="C901" s="17"/>
+      <c r="C901" s="18"/>
       <c r="E901" s="10"/>
     </row>
     <row r="902">
-      <c r="C902" s="17"/>
+      <c r="C902" s="18"/>
       <c r="E902" s="10"/>
     </row>
     <row r="903">
-      <c r="C903" s="17"/>
+      <c r="C903" s="18"/>
       <c r="E903" s="10"/>
     </row>
     <row r="904">
-      <c r="C904" s="17"/>
+      <c r="C904" s="18"/>
       <c r="E904" s="10"/>
     </row>
     <row r="905">
-      <c r="C905" s="17"/>
+      <c r="C905" s="18"/>
       <c r="E905" s="10"/>
     </row>
     <row r="906">
-      <c r="C906" s="17"/>
+      <c r="C906" s="18"/>
       <c r="E906" s="10"/>
     </row>
     <row r="907">
-      <c r="C907" s="17"/>
+      <c r="C907" s="18"/>
       <c r="E907" s="10"/>
     </row>
     <row r="908">
-      <c r="C908" s="17"/>
+      <c r="C908" s="18"/>
       <c r="E908" s="10"/>
     </row>
     <row r="909">
-      <c r="C909" s="17"/>
+      <c r="C909" s="18"/>
       <c r="E909" s="10"/>
     </row>
     <row r="910">
-      <c r="C910" s="17"/>
+      <c r="C910" s="18"/>
       <c r="E910" s="10"/>
     </row>
     <row r="911">
-      <c r="C911" s="17"/>
+      <c r="C911" s="18"/>
       <c r="E911" s="10"/>
     </row>
     <row r="912">
-      <c r="C912" s="17"/>
+      <c r="C912" s="18"/>
       <c r="E912" s="10"/>
     </row>
     <row r="913">
-      <c r="C913" s="17"/>
+      <c r="C913" s="18"/>
       <c r="E913" s="10"/>
     </row>
     <row r="914">
-      <c r="C914" s="17"/>
+      <c r="C914" s="18"/>
       <c r="E914" s="10"/>
     </row>
     <row r="915">
-      <c r="C915" s="17"/>
+      <c r="C915" s="18"/>
       <c r="E915" s="10"/>
     </row>
     <row r="916">
-      <c r="C916" s="17"/>
+      <c r="C916" s="18"/>
       <c r="E916" s="10"/>
     </row>
     <row r="917">
-      <c r="C917" s="17"/>
+      <c r="C917" s="18"/>
       <c r="E917" s="10"/>
     </row>
     <row r="918">
-      <c r="C918" s="17"/>
+      <c r="C918" s="18"/>
       <c r="E918" s="10"/>
     </row>
     <row r="919">
-      <c r="C919" s="17"/>
+      <c r="C919" s="18"/>
       <c r="E919" s="10"/>
     </row>
     <row r="920">
-      <c r="C920" s="17"/>
+      <c r="C920" s="18"/>
       <c r="E920" s="10"/>
     </row>
     <row r="921">
-      <c r="C921" s="17"/>
+      <c r="C921" s="18"/>
       <c r="E921" s="10"/>
     </row>
     <row r="922">
-      <c r="C922" s="17"/>
+      <c r="C922" s="18"/>
       <c r="E922" s="10"/>
     </row>
     <row r="923">
-      <c r="C923" s="17"/>
+      <c r="C923" s="18"/>
       <c r="E923" s="10"/>
     </row>
     <row r="924">
-      <c r="C924" s="17"/>
+      <c r="C924" s="18"/>
       <c r="E924" s="10"/>
     </row>
     <row r="925">
-      <c r="C925" s="17"/>
+      <c r="C925" s="18"/>
       <c r="E925" s="10"/>
     </row>
     <row r="926">
-      <c r="C926" s="17"/>
+      <c r="C926" s="18"/>
       <c r="E926" s="10"/>
     </row>
     <row r="927">
-      <c r="C927" s="17"/>
+      <c r="C927" s="18"/>
       <c r="E927" s="10"/>
     </row>
     <row r="928">
-      <c r="C928" s="17"/>
+      <c r="C928" s="18"/>
       <c r="E928" s="10"/>
     </row>
     <row r="929">
-      <c r="C929" s="17"/>
+      <c r="C929" s="18"/>
       <c r="E929" s="10"/>
     </row>
     <row r="930">
-      <c r="C930" s="17"/>
+      <c r="C930" s="18"/>
       <c r="E930" s="10"/>
     </row>
     <row r="931">
-      <c r="C931" s="17"/>
+      <c r="C931" s="18"/>
       <c r="E931" s="10"/>
     </row>
     <row r="932">
-      <c r="C932" s="17"/>
+      <c r="C932" s="18"/>
       <c r="E932" s="10"/>
     </row>
     <row r="933">
-      <c r="C933" s="17"/>
+      <c r="C933" s="18"/>
       <c r="E933" s="10"/>
     </row>
     <row r="934">
-      <c r="C934" s="17"/>
+      <c r="C934" s="18"/>
       <c r="E934" s="10"/>
     </row>
     <row r="935">
-      <c r="C935" s="17"/>
+      <c r="C935" s="18"/>
       <c r="E935" s="10"/>
     </row>
     <row r="936">
-      <c r="C936" s="17"/>
+      <c r="C936" s="18"/>
       <c r="E936" s="10"/>
     </row>
     <row r="937">
-      <c r="C937" s="17"/>
+      <c r="C937" s="18"/>
       <c r="E937" s="10"/>
     </row>
     <row r="938">
-      <c r="C938" s="17"/>
+      <c r="C938" s="18"/>
       <c r="E938" s="10"/>
     </row>
     <row r="939">
-      <c r="C939" s="17"/>
+      <c r="C939" s="18"/>
       <c r="E939" s="10"/>
     </row>
     <row r="940">
-      <c r="C940" s="17"/>
+      <c r="C940" s="18"/>
       <c r="E940" s="10"/>
     </row>
     <row r="941">
-      <c r="C941" s="17"/>
+      <c r="C941" s="18"/>
       <c r="E941" s="10"/>
     </row>
     <row r="942">
-      <c r="C942" s="17"/>
+      <c r="C942" s="18"/>
       <c r="E942" s="10"/>
     </row>
     <row r="943">
-      <c r="C943" s="17"/>
+      <c r="C943" s="18"/>
       <c r="E943" s="10"/>
     </row>
     <row r="944">
-      <c r="C944" s="17"/>
+      <c r="C944" s="18"/>
       <c r="E944" s="10"/>
     </row>
     <row r="945">
-      <c r="C945" s="17"/>
+      <c r="C945" s="18"/>
       <c r="E945" s="10"/>
     </row>
     <row r="946">
-      <c r="C946" s="17"/>
+      <c r="C946" s="18"/>
       <c r="E946" s="10"/>
     </row>
     <row r="947">
-      <c r="C947" s="17"/>
+      <c r="C947" s="18"/>
       <c r="E947" s="10"/>
     </row>
     <row r="948">
-      <c r="C948" s="17"/>
+      <c r="C948" s="18"/>
       <c r="E948" s="10"/>
     </row>
     <row r="949">
-      <c r="C949" s="17"/>
+      <c r="C949" s="18"/>
       <c r="E949" s="10"/>
     </row>
     <row r="950">
-      <c r="C950" s="17"/>
+      <c r="C950" s="18"/>
       <c r="E950" s="10"/>
     </row>
     <row r="951">
-      <c r="C951" s="17"/>
+      <c r="C951" s="18"/>
       <c r="E951" s="10"/>
     </row>
     <row r="952">
-      <c r="C952" s="17"/>
+      <c r="C952" s="18"/>
       <c r="E952" s="10"/>
     </row>
     <row r="953">
-      <c r="C953" s="17"/>
+      <c r="C953" s="18"/>
       <c r="E953" s="10"/>
     </row>
     <row r="954">
-      <c r="C954" s="17"/>
+      <c r="C954" s="18"/>
       <c r="E954" s="10"/>
     </row>
     <row r="955">
-      <c r="C955" s="17"/>
+      <c r="C955" s="18"/>
       <c r="E955" s="10"/>
     </row>
     <row r="956">
-      <c r="C956" s="17"/>
+      <c r="C956" s="18"/>
       <c r="E956" s="10"/>
     </row>
     <row r="957">
-      <c r="C957" s="17"/>
+      <c r="C957" s="18"/>
       <c r="E957" s="10"/>
     </row>
     <row r="958">
-      <c r="C958" s="17"/>
+      <c r="C958" s="18"/>
       <c r="E958" s="10"/>
     </row>
     <row r="959">
-      <c r="C959" s="17"/>
+      <c r="C959" s="18"/>
       <c r="E959" s="10"/>
     </row>
     <row r="960">
-      <c r="C960" s="17"/>
+      <c r="C960" s="18"/>
       <c r="E960" s="10"/>
     </row>
     <row r="961">
-      <c r="C961" s="17"/>
+      <c r="C961" s="18"/>
       <c r="E961" s="10"/>
     </row>
     <row r="962">
-      <c r="C962" s="17"/>
+      <c r="C962" s="18"/>
       <c r="E962" s="10"/>
     </row>
     <row r="963">
-      <c r="C963" s="17"/>
+      <c r="C963" s="18"/>
       <c r="E963" s="10"/>
     </row>
     <row r="964">
-      <c r="C964" s="17"/>
+      <c r="C964" s="18"/>
       <c r="E964" s="10"/>
     </row>
     <row r="965">
-      <c r="C965" s="17"/>
+      <c r="C965" s="18"/>
       <c r="E965" s="10"/>
     </row>
     <row r="966">
-      <c r="C966" s="17"/>
+      <c r="C966" s="18"/>
       <c r="E966" s="10"/>
     </row>
     <row r="967">
-      <c r="C967" s="17"/>
+      <c r="C967" s="18"/>
       <c r="E967" s="10"/>
     </row>
     <row r="968">
-      <c r="C968" s="17"/>
+      <c r="C968" s="18"/>
       <c r="E968" s="10"/>
     </row>
     <row r="969">
-      <c r="C969" s="17"/>
+      <c r="C969" s="18"/>
       <c r="E969" s="10"/>
     </row>
     <row r="970">
-      <c r="C970" s="17"/>
+      <c r="C970" s="18"/>
       <c r="E970" s="10"/>
     </row>
     <row r="971">
-      <c r="C971" s="17"/>
+      <c r="C971" s="18"/>
       <c r="E971" s="10"/>
     </row>
     <row r="972">
-      <c r="C972" s="17"/>
+      <c r="C972" s="18"/>
       <c r="E972" s="10"/>
     </row>
     <row r="973">
-      <c r="C973" s="17"/>
+      <c r="C973" s="18"/>
       <c r="E973" s="10"/>
     </row>
     <row r="974">
-      <c r="C974" s="17"/>
+      <c r="C974" s="18"/>
       <c r="E974" s="10"/>
     </row>
     <row r="975">
-      <c r="C975" s="17"/>
+      <c r="C975" s="18"/>
       <c r="E975" s="10"/>
     </row>
     <row r="976">
-      <c r="C976" s="17"/>
+      <c r="C976" s="18"/>
       <c r="E976" s="10"/>
     </row>
     <row r="977">
-      <c r="C977" s="17"/>
+      <c r="C977" s="18"/>
       <c r="E977" s="10"/>
     </row>
     <row r="978">
-      <c r="C978" s="17"/>
+      <c r="C978" s="18"/>
       <c r="E978" s="10"/>
     </row>
     <row r="979">
-      <c r="C979" s="17"/>
+      <c r="C979" s="18"/>
       <c r="E979" s="10"/>
     </row>
     <row r="980">
-      <c r="C980" s="17"/>
+      <c r="C980" s="18"/>
       <c r="E980" s="10"/>
     </row>
     <row r="981">
-      <c r="C981" s="17"/>
+      <c r="C981" s="18"/>
       <c r="E981" s="10"/>
     </row>
     <row r="982">
-      <c r="C982" s="17"/>
+      <c r="C982" s="18"/>
       <c r="E982" s="10"/>
     </row>
     <row r="983">
-      <c r="C983" s="17"/>
+      <c r="C983" s="18"/>
       <c r="E983" s="10"/>
     </row>
     <row r="984">
-      <c r="C984" s="17"/>
+      <c r="C984" s="18"/>
       <c r="E984" s="10"/>
     </row>
     <row r="985">
-      <c r="C985" s="17"/>
+      <c r="C985" s="18"/>
       <c r="E985" s="10"/>
     </row>
     <row r="986">
-      <c r="C986" s="17"/>
+      <c r="C986" s="18"/>
       <c r="E986" s="10"/>
     </row>
     <row r="987">
-      <c r="C987" s="17"/>
+      <c r="C987" s="18"/>
       <c r="E987" s="10"/>
     </row>
     <row r="988">
-      <c r="C988" s="17"/>
+      <c r="C988" s="18"/>
       <c r="E988" s="10"/>
     </row>
     <row r="989">
-      <c r="C989" s="17"/>
+      <c r="C989" s="18"/>
       <c r="E989" s="10"/>
     </row>
     <row r="990">
-      <c r="C990" s="17"/>
+      <c r="C990" s="18"/>
       <c r="E990" s="10"/>
     </row>
     <row r="991">
-      <c r="C991" s="17"/>
+      <c r="C991" s="18"/>
       <c r="E991" s="10"/>
     </row>
     <row r="992">
-      <c r="C992" s="17"/>
+      <c r="C992" s="18"/>
       <c r="E992" s="10"/>
     </row>
     <row r="993">
-      <c r="C993" s="17"/>
+      <c r="C993" s="18"/>
       <c r="E993" s="10"/>
     </row>
     <row r="994">
-      <c r="C994" s="17"/>
+      <c r="C994" s="18"/>
       <c r="E994" s="10"/>
     </row>
     <row r="995">
-      <c r="C995" s="17"/>
+      <c r="C995" s="18"/>
       <c r="E995" s="10"/>
     </row>
     <row r="996">
-      <c r="C996" s="17"/>
+      <c r="C996" s="18"/>
       <c r="E996" s="10"/>
     </row>
     <row r="997">
-      <c r="C997" s="17"/>
+      <c r="C997" s="18"/>
       <c r="E997" s="10"/>
     </row>
     <row r="998">
-      <c r="C998" s="17"/>
+      <c r="C998" s="18"/>
       <c r="E998" s="10"/>
     </row>
     <row r="999">
-      <c r="C999" s="17"/>
+      <c r="C999" s="18"/>
       <c r="E999" s="10"/>
     </row>
     <row r="1000">
-      <c r="C1000" s="17"/>
+      <c r="C1000" s="18"/>
       <c r="E1000" s="10"/>
     </row>
   </sheetData>
@@ -14672,12 +14729,17 @@
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D2"/>
     <hyperlink r:id="rId2" ref="D3"/>
-    <hyperlink r:id="rId3" ref="D4"/>
-    <hyperlink r:id="rId4" ref="D5"/>
-    <hyperlink r:id="rId5" ref="D6"/>
-    <hyperlink r:id="rId6" ref="D7"/>
+    <hyperlink r:id="rId3" ref="G3"/>
+    <hyperlink r:id="rId4" ref="D4"/>
+    <hyperlink r:id="rId5" ref="G4"/>
+    <hyperlink r:id="rId6" ref="D5"/>
+    <hyperlink r:id="rId7" ref="G5"/>
+    <hyperlink r:id="rId8" ref="D6"/>
+    <hyperlink r:id="rId9" ref="G6"/>
+    <hyperlink r:id="rId10" ref="D7"/>
+    <hyperlink r:id="rId11" ref="G7"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -14698,112 +14760,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="C8" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>78</v>
+      <c r="B10" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -14829,16 +14891,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
@@ -14846,79 +14908,79 @@
         <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -14926,10 +14988,10 @@
         <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10">
@@ -14937,10 +14999,10 @@
         <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
@@ -17935,253 +17997,253 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" s="3" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" s="3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" s="3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38">
       <c r="C38" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/LEADERBOARD.xlsx
+++ b/src/data/LEADERBOARD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ro_benchmark_leaderboard\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193F4BD9-46D0-4670-9120-AE2F5464E2F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C182AC-F8C1-4D22-BC63-69166E2E54AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help-ReadMeFirst" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="164">
   <si>
     <t>HELP FOR ADDING A NEW SYSTEM/PAPER TO THE LEADERBOARD</t>
   </si>
@@ -5553,7 +5553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D997"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -10719,8 +10719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -10946,7 +10946,9 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
+      <c r="A9" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>161</v>
       </c>

--- a/src/data/LEADERBOARD.xlsx
+++ b/src/data/LEADERBOARD.xlsx
@@ -184,7 +184,7 @@
     <t xml:space="preserve">LICENSE URL</t>
   </si>
   <si>
-    <t xml:space="preserve">DATASET DESCRIPTION FILE</t>
+    <t xml:space="preserve">SHORT DESCRIPTION FILE</t>
   </si>
   <si>
     <t xml:space="preserve">NER</t>
@@ -742,7 +742,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -861,10 +861,10 @@
       <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.86"/>
@@ -5274,11 +5274,11 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10425,17 +10425,17 @@
   </sheetPr>
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
@@ -13753,9 +13753,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="134.14"/>
   </cols>
@@ -13914,11 +13914,11 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="118.73"/>
   </cols>
   <sheetData>
@@ -17117,7 +17117,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">

--- a/src/data/LEADERBOARD.xlsx
+++ b/src/data/LEADERBOARD.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="160">
   <si>
     <t xml:space="preserve">HELP FOR ADDING A NEW SYSTEM/PAPER TO THE LEADERBOARD</t>
   </si>
@@ -187,6 +187,9 @@
     <t xml:space="preserve">SHORT DESCRIPTION FILE</t>
   </si>
   <si>
+    <t xml:space="preserve">LONG DESCRIPTION FILE</t>
+  </si>
+  <si>
     <t xml:space="preserve">NER</t>
   </si>
   <si>
@@ -202,6 +205,9 @@
     <t xml:space="preserve">MIT</t>
   </si>
   <si>
+    <t xml:space="preserve">RONEC-v1.0-site.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">RONEC-v1.0.md</t>
   </si>
   <si>
@@ -215,6 +221,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://creativecommons.org/licenses/by-sa/4.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniversalDependencies-RO-RRT-v2.5-site.md</t>
   </si>
   <si>
     <t xml:space="preserve">UniversalDependencies-RO-RRT-v2.5.md</t>
@@ -250,6 +259,9 @@
     <t xml:space="preserve">LaRoSeDa-site.md</t>
   </si>
   <si>
+    <t xml:space="preserve">LaRoSeDa.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Text Classification</t>
   </si>
   <si>
@@ -257,6 +269,9 @@
   </si>
   <si>
     <t xml:space="preserve">MOROCO-site.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOROCO.md</t>
   </si>
   <si>
     <t xml:space="preserve">AREA</t>
@@ -10426,7 +10441,7 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10437,6 +10452,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="26.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -10462,7 +10478,9 @@
       <c r="G1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="10"/>
+      <c r="H1" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
@@ -10474,174 +10492,198 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="G9" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13762,134 +13804,134 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -13924,94 +13966,94 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14019,13 +14061,13 @@
         <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14033,13 +14075,13 @@
         <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14047,13 +14089,13 @@
         <v>40</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14061,13 +14103,13 @@
         <v>41</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14075,27 +14117,27 @@
         <v>42</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14103,41 +14145,41 @@
         <v>43</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17121,253 +17163,253 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/LEADERBOARD.xlsx
+++ b/src/data/LEADERBOARD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Help-ReadMeFirst" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="191">
   <si>
     <t xml:space="preserve">HELP FOR ADDING A NEW SYSTEM/PAPER TO THE LEADERBOARD</t>
   </si>
@@ -211,6 +211,54 @@
     <t xml:space="preserve">https://github.com/ancatache/LaRoSeDa</t>
   </si>
   <si>
+    <t xml:space="preserve">UD Romanian RRT Treebank v2.5 – cross-domain PoS tagging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LiRo Baseline Stanza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LiRo: Benchmark and leaderboard for Romanian language tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openreview.net/forum?id=JH61CD7afTv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UD Romanian RRT Treebank v2.5 – cross-domain Dependency Parsing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RONEC - Romanian Named Entity Corpus v1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romanian BERT Baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The birth of Romanian BERT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aclweb.org/anthology/2020.findings-emnlp.387/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mBART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multilingual Denoising Pre-training for Neural Machine Translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://arxiv.org/abs/2001.08210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiki-Ro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LiRo Baseline ro-Bert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romanian word embeddings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LiRo Baseline gender debiasing</t>
+  </si>
+  <si>
     <t xml:space="preserve">MODEL</t>
   </si>
   <si>
@@ -250,6 +298,18 @@
     <t xml:space="preserve">Spearman Correlation</t>
   </si>
   <si>
+    <t xml:space="preserve">Exact Match F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perplexity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modified-WEAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">AREA</t>
   </si>
   <si>
@@ -262,10 +322,10 @@
     <t xml:space="preserve">NLP</t>
   </si>
   <si>
-    <t xml:space="preserve">Text Classification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text classification is the task of assigning a sentence or document an appropriate category. The categories depend on the chosen dataset and can range from topics.</t>
+    <t xml:space="preserve">Text Categorization by Topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text Categorization by Topic is the task of assigning a sentence or document an appropriate category. The categories depend on the chosen dataset and can range from topics.</t>
   </si>
   <si>
     <t xml:space="preserve">NER</t>
@@ -337,6 +397,18 @@
     <t xml:space="preserve">Semantic textual similarity deals with determining how similar two sentences or documents are. Similarity can be measured as an interval, like 1 (no relation between two texts) to 5 (the two texts fully convey the same meaning). Standard dataset measures include Pearson and Spearman correlations.</t>
   </si>
   <si>
+    <t xml:space="preserve">Cross-domain POS Tagging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross-domain Dependency Parsing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender debiasing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender debiasing is the task of reducing bias în Romanian word embeddings.</t>
+  </si>
+  <si>
     <t xml:space="preserve">TASK</t>
   </si>
   <si>
@@ -361,15 +433,9 @@
     <t xml:space="preserve">LONG DESCRIPTION FILE</t>
   </si>
   <si>
-    <t xml:space="preserve">RONEC - Romanian Named Entity Corpus v1.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://github.com/dumitrescustefan/ronec</t>
   </si>
   <si>
-    <t xml:space="preserve">Exact Match F1</t>
-  </si>
-  <si>
     <t xml:space="preserve">MIT</t>
   </si>
   <si>
@@ -424,9 +490,6 @@
     <t xml:space="preserve">RO-STS-parallel</t>
   </si>
   <si>
-    <t xml:space="preserve">BLEU</t>
-  </si>
-  <si>
     <t xml:space="preserve">RO-STS-parallel-site.md</t>
   </si>
   <si>
@@ -451,6 +514,12 @@
     <t xml:space="preserve">XQuAD-ro.md</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dumps.wikimedia.org/rowiki/20210401/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://corola.racai.ro/</t>
+  </si>
+  <si>
     <t xml:space="preserve">METRICS</t>
   </si>
   <si>
@@ -478,9 +547,6 @@
     <t xml:space="preserve">Accuracy</t>
   </si>
   <si>
-    <t xml:space="preserve">Perplexity</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lower-is-better</t>
   </si>
   <si>
@@ -527,6 +593,9 @@
   </si>
   <si>
     <t xml:space="preserve">For QA (EM = exact match)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Gender debiasing</t>
   </si>
   <si>
     <t xml:space="preserve">RANK</t>
@@ -835,7 +904,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.31640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -951,10 +1020,10 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.31640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.71"/>
@@ -1473,35 +1542,146 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="12"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
-      <c r="B22" s="12"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
-      <c r="B23" s="12"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8"/>
-      <c r="B24" s="12"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
-      <c r="B25" s="12"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
-      <c r="B26" s="12"/>
-      <c r="F26" s="8"/>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
@@ -5516,6 +5696,13 @@
     <hyperlink ref="D19" r:id="rId29" display="https://arxiv.org/abs/2007.15700"/>
     <hyperlink ref="D20" r:id="rId30" display="https://www.aclweb.org/anthology/2021.eacl-main.81/"/>
     <hyperlink ref="E20" r:id="rId31" display="https://github.com/ancatache/LaRoSeDa"/>
+    <hyperlink ref="D21" r:id="rId32" display="https://openreview.net/forum?id=JH61CD7afTv"/>
+    <hyperlink ref="D22" r:id="rId33" display="https://openreview.net/forum?id=JH61CD7afTv"/>
+    <hyperlink ref="D23" r:id="rId34" display="https://www.aclweb.org/anthology/2020.findings-emnlp.387/"/>
+    <hyperlink ref="E23" r:id="rId35" display="https://github.com/dumitrescustefan/Romanian-Transformers"/>
+    <hyperlink ref="D24" r:id="rId36" display="https://arxiv.org/abs/2001.08210"/>
+    <hyperlink ref="D25" r:id="rId37" display="https://openreview.net/forum?id=JH61CD7afTv"/>
+    <hyperlink ref="D26" r:id="rId38" display="https://openreview.net/forum?id=JH61CD7afTv"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5534,11 +5721,11 @@
   </sheetPr>
   <dimension ref="A1:D997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.31640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.98"/>
@@ -5547,16 +5734,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5567,7 +5754,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>99.74</v>
@@ -5581,7 +5768,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>95.56</v>
@@ -5595,7 +5782,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>96.91</v>
@@ -5609,7 +5796,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>97.42</v>
@@ -5623,7 +5810,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>90.38</v>
@@ -5637,7 +5824,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>85.23</v>
@@ -5651,7 +5838,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>99.71</v>
@@ -5665,7 +5852,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>95.42</v>
@@ -5679,7 +5866,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>96.57</v>
@@ -5693,7 +5880,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>96.96</v>
@@ -5707,7 +5894,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>90.14</v>
@@ -5721,7 +5908,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>85.06</v>
@@ -5735,7 +5922,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3" t="n">
         <v>98.18</v>
@@ -5749,7 +5936,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3" t="n">
         <v>72.7</v>
@@ -5763,7 +5950,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D16" s="3" t="n">
         <v>83.6</v>
@@ -5777,7 +5964,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D17" s="3" t="n">
         <v>59.9</v>
@@ -5791,7 +5978,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D18" s="3" t="n">
         <v>69.7</v>
@@ -5805,7 +5992,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>0.6744</v>
@@ -5819,7 +6006,7 @@
         <v>47</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>0.6662</v>
@@ -5833,7 +6020,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>0.8159</v>
@@ -5847,7 +6034,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>0.8086</v>
@@ -5861,7 +6048,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>0.769</v>
@@ -5875,7 +6062,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>0.765</v>
@@ -5889,7 +6076,7 @@
         <v>52</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>88.03</v>
@@ -5903,41 +6090,95 @@
         <v>56</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>54.3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="A27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>95.73</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>88.97</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="A29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>85.88</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="A30" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+      <c r="A31" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="A32" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>2.57</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
@@ -10796,11 +11037,11 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.31640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.28"/>
@@ -10809,185 +11050,285 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="8"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A51" type="list">
@@ -11013,16 +11354,16 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.31640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.42"/>
@@ -11030,28 +11371,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
@@ -11064,160 +11405,160 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>56</v>
@@ -11226,50 +11567,50 @@
         <v>60</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>47</v>
@@ -11278,76 +11619,76 @@
         <v>49</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>37</v>
@@ -11356,36 +11697,112 @@
         <v>40</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="G13" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="D14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="F14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
@@ -14453,6 +14870,12 @@
     <hyperlink ref="C12" r:id="rId20" location="download" display="https://www.statmt.org/wmt16/translation-task.html#download"/>
     <hyperlink ref="C13" r:id="rId21" display="https://github.com/deepmind/xquad"/>
     <hyperlink ref="F13" r:id="rId22" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
+    <hyperlink ref="C14" r:id="rId23" display="https://universaldependencies.org/"/>
+    <hyperlink ref="F14" r:id="rId24" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
+    <hyperlink ref="C15" r:id="rId25" display="https://universaldependencies.org/"/>
+    <hyperlink ref="F15" r:id="rId26" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
+    <hyperlink ref="C16" r:id="rId27" display="https://dumps.wikimedia.org/rowiki/20210401/"/>
+    <hyperlink ref="C17" r:id="rId28" display="https://corola.racai.ro/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14472,10 +14895,10 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.31640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.42"/>
@@ -14485,278 +14908,289 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="8"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
@@ -17719,26 +18153,26 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>1</v>
@@ -17746,7 +18180,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>2</v>

--- a/src/data/LEADERBOARD.xlsx
+++ b/src/data/LEADERBOARD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Help-ReadMeFirst" sheetId="1" state="visible" r:id="rId2"/>
@@ -319,7 +319,7 @@
     <t xml:space="preserve">DESCRIPTION</t>
   </si>
   <si>
-    <t xml:space="preserve">NLP</t>
+    <t xml:space="preserve">NLP Benchmark</t>
   </si>
   <si>
     <t xml:space="preserve">Text Categorization by Topic</t>
@@ -904,7 +904,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1023,7 +1023,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.71"/>
@@ -5721,11 +5721,11 @@
   </sheetPr>
   <dimension ref="A1:D997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.98"/>
@@ -11037,11 +11037,11 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.28"/>
@@ -11357,9 +11357,9 @@
       <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.29"/>
@@ -14898,7 +14898,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.42"/>
@@ -18154,10 +18154,10 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.33"/>
   </cols>

--- a/src/data/LEADERBOARD.xlsx
+++ b/src/data/LEADERBOARD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Help-ReadMeFirst" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="193">
   <si>
     <t xml:space="preserve">HELP FOR ADDING A NEW SYSTEM/PAPER TO THE LEADERBOARD</t>
   </si>
@@ -599,6 +599,12 @@
   </si>
   <si>
     <t xml:space="preserve">RANK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMARKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not part of the official benchmark.</t>
   </si>
 </sst>
 </file>
@@ -904,7 +910,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.37109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1023,7 +1029,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.37109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.71"/>
@@ -5725,7 +5731,7 @@
       <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.37109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.98"/>
@@ -11037,11 +11043,11 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.37109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.28"/>
@@ -11357,7 +11363,7 @@
       <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.37109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.29"/>
@@ -14898,7 +14904,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.37109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.42"/>
@@ -18153,13 +18159,14 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18169,6 +18176,9 @@
       <c r="B1" s="5" t="s">
         <v>190</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -18184,6 +18194,9 @@
       </c>
       <c r="B3" s="3" t="n">
         <v>2</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/data/LEADERBOARD.xlsx
+++ b/src/data/LEADERBOARD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Help-ReadMeFirst" sheetId="1" state="visible" r:id="rId2"/>
@@ -517,7 +517,7 @@
     <t xml:space="preserve">https://dumps.wikimedia.org/rowiki/20210401/</t>
   </si>
   <si>
-    <t xml:space="preserve">https://corola.racai.ro/</t>
+    <t xml:space="preserve">https://github.com/LiroBenchmark/gender-bias/tree/main/embeddings_ro</t>
   </si>
   <si>
     <t xml:space="preserve">METRICS</t>
@@ -910,7 +910,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.37109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1029,14 +1029,13 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.37109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.71"/>
   </cols>
   <sheetData>
@@ -5727,11 +5726,11 @@
   </sheetPr>
   <dimension ref="A1:D997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.37109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.98"/>
@@ -11047,7 +11046,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.37109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.28"/>
@@ -11360,14 +11359,14 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.37109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="59.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.7"/>
@@ -14881,7 +14880,7 @@
     <hyperlink ref="C15" r:id="rId25" display="https://universaldependencies.org/"/>
     <hyperlink ref="F15" r:id="rId26" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
     <hyperlink ref="C16" r:id="rId27" display="https://dumps.wikimedia.org/rowiki/20210401/"/>
-    <hyperlink ref="C17" r:id="rId28" display="https://corola.racai.ro/"/>
+    <hyperlink ref="C17" r:id="rId28" display="https://github.com/LiroBenchmark/gender-bias/tree/main/embeddings_ro"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14904,7 +14903,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.37109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.42"/>
@@ -18159,11 +18158,11 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.8"/>

--- a/src/data/LEADERBOARD.xlsx
+++ b/src/data/LEADERBOARD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Help-ReadMeFirst" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="197">
   <si>
     <t xml:space="preserve">HELP FOR ADDING A NEW SYSTEM/PAPER TO THE LEADERBOARD</t>
   </si>
@@ -517,7 +517,19 @@
     <t xml:space="preserve">https://dumps.wikimedia.org/rowiki/20210401/</t>
   </si>
   <si>
-    <t xml:space="preserve">https://github.com/LiroBenchmark/gender-bias/tree/main/embeddings_ro</t>
+    <t xml:space="preserve">Wiki-ro-site.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiki-ro.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/LiroBenchmark/gender-bias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">romanian-word-embeddings.site.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">romanian-word-embeddings.md</t>
   </si>
   <si>
     <t xml:space="preserve">METRICS</t>
@@ -910,7 +922,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1029,7 +1041,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.71"/>
@@ -5726,11 +5738,11 @@
   </sheetPr>
   <dimension ref="A1:D997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.98"/>
@@ -11046,7 +11058,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.28"/>
@@ -11358,11 +11370,11 @@
   </sheetPr>
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.29"/>
@@ -11788,6 +11800,12 @@
       <c r="F16" s="7" t="s">
         <v>157</v>
       </c>
+      <c r="G16" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
@@ -11797,7 +11815,7 @@
         <v>75</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>93</v>
@@ -11807,6 +11825,12 @@
       </c>
       <c r="F17" s="0" t="s">
         <v>157</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14880,7 +14904,7 @@
     <hyperlink ref="C15" r:id="rId25" display="https://universaldependencies.org/"/>
     <hyperlink ref="F15" r:id="rId26" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
     <hyperlink ref="C16" r:id="rId27" display="https://dumps.wikimedia.org/rowiki/20210401/"/>
-    <hyperlink ref="C17" r:id="rId28" display="https://github.com/LiroBenchmark/gender-bias/tree/main/embeddings_ro"/>
+    <hyperlink ref="C17" r:id="rId28" display="https://github.com/LiroBenchmark/gender-bias"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14903,7 +14927,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.42"/>
@@ -14913,13 +14937,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>96</v>
@@ -14930,47 +14954,47 @@
         <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14978,13 +15002,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14992,13 +15016,13 @@
         <v>89</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15006,13 +15030,13 @@
         <v>88</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15020,13 +15044,13 @@
         <v>84</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15034,13 +15058,13 @@
         <v>85</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15048,13 +15072,13 @@
         <v>80</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15062,13 +15086,13 @@
         <v>81</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15076,27 +15100,27 @@
         <v>82</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15104,27 +15128,27 @@
         <v>83</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15132,13 +15156,13 @@
         <v>90</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15146,27 +15170,27 @@
         <v>91</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15174,13 +15198,13 @@
         <v>87</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15188,13 +15212,13 @@
         <v>93</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18162,7 +18186,7 @@
       <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.8"/>
@@ -18173,10 +18197,10 @@
         <v>95</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18195,7 +18219,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/data/LEADERBOARD.xlsx
+++ b/src/data/LEADERBOARD.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="199">
   <si>
     <t xml:space="preserve">HELP FOR ADDING A NEW SYSTEM/PAPER TO THE LEADERBOARD</t>
   </si>
@@ -512,6 +512,12 @@
   </si>
   <si>
     <t xml:space="preserve">XQuAD-ro.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniversalDependencies-RO-RRT-v2.8-Cross-Domain-site.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniversalDependencies-RO-RRT-v2.8-Cross-Domain.md</t>
   </si>
   <si>
     <t xml:space="preserve">https://dumps.wikimedia.org/rowiki/20210401/</t>
@@ -922,7 +928,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1041,7 +1047,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.71"/>
@@ -5742,7 +5748,7 @@
       <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.98"/>
@@ -11058,7 +11064,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.28"/>
@@ -11371,10 +11377,10 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.29"/>
@@ -11749,10 +11755,10 @@
         <v>141</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11775,10 +11781,10 @@
         <v>141</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11789,7 +11795,7 @@
         <v>73</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>92</v>
@@ -11801,10 +11807,10 @@
         <v>157</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11815,7 +11821,7 @@
         <v>75</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>93</v>
@@ -11827,10 +11833,10 @@
         <v>157</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14904,7 +14910,7 @@
     <hyperlink ref="C15" r:id="rId25" display="https://universaldependencies.org/"/>
     <hyperlink ref="F15" r:id="rId26" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
     <hyperlink ref="C16" r:id="rId27" display="https://dumps.wikimedia.org/rowiki/20210401/"/>
-    <hyperlink ref="C17" r:id="rId28" display="https://github.com/LiroBenchmark/gender-bias"/>
+    <hyperlink ref="C17" r:id="rId28" display="https://github.com/LiroBenchmark/gender-bias "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14927,7 +14933,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.42"/>
@@ -14937,13 +14943,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>96</v>
@@ -14954,47 +14960,47 @@
         <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15002,13 +15008,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15016,13 +15022,13 @@
         <v>89</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15030,13 +15036,13 @@
         <v>88</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15044,13 +15050,13 @@
         <v>84</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15058,13 +15064,13 @@
         <v>85</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15072,13 +15078,13 @@
         <v>80</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15086,13 +15092,13 @@
         <v>81</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15100,27 +15106,27 @@
         <v>82</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15128,27 +15134,27 @@
         <v>83</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15156,13 +15162,13 @@
         <v>90</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15170,27 +15176,27 @@
         <v>91</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15198,13 +15204,13 @@
         <v>87</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15212,13 +15218,13 @@
         <v>93</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18186,7 +18192,7 @@
       <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.8"/>
@@ -18197,10 +18203,10 @@
         <v>95</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18219,7 +18225,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/data/LEADERBOARD.xlsx
+++ b/src/data/LEADERBOARD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Help-ReadMeFirst" sheetId="1" state="visible" r:id="rId2"/>
@@ -211,7 +211,7 @@
     <t xml:space="preserve">https://github.com/ancatache/LaRoSeDa</t>
   </si>
   <si>
-    <t xml:space="preserve">UD Romanian RRT Treebank v2.5 – cross-domain PoS tagging</t>
+    <t xml:space="preserve">UD Romanian RRT Treebank v2.8 – cross-domain PoS tagging</t>
   </si>
   <si>
     <t xml:space="preserve">LiRo Baseline Stanza</t>
@@ -223,7 +223,7 @@
     <t xml:space="preserve">https://openreview.net/forum?id=JH61CD7afTv</t>
   </si>
   <si>
-    <t xml:space="preserve">UD Romanian RRT Treebank v2.5 – cross-domain Dependency Parsing</t>
+    <t xml:space="preserve">UD Romanian RRT Treebank v2.8 – cross-domain Dependency Parsing</t>
   </si>
   <si>
     <t xml:space="preserve">RONEC - Romanian Named Entity Corpus v1.0</t>
@@ -928,7 +928,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1043,11 +1043,11 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.71"/>
@@ -5745,10 +5745,10 @@
   <dimension ref="A1:D997"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.98"/>
@@ -11064,7 +11064,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.28"/>
@@ -11376,11 +11376,11 @@
   </sheetPr>
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.29"/>
@@ -14933,7 +14933,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.42"/>
@@ -18192,7 +18192,7 @@
       <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.8"/>

--- a/src/data/LEADERBOARD.xlsx
+++ b/src/data/LEADERBOARD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Help-ReadMeFirst" sheetId="1" state="visible" r:id="rId2"/>
@@ -520,7 +520,7 @@
     <t xml:space="preserve">UniversalDependencies-RO-RRT-v2.8-Cross-Domain.md</t>
   </si>
   <si>
-    <t xml:space="preserve">https://dumps.wikimedia.org/rowiki/20210401/</t>
+    <t xml:space="preserve">https://github.com/dumitrescustefan/wiki-ro</t>
   </si>
   <si>
     <t xml:space="preserve">Wiki-ro-site.md</t>
@@ -928,7 +928,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1043,11 +1043,11 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.71"/>
@@ -5748,7 +5748,7 @@
       <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.98"/>
@@ -11064,7 +11064,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.28"/>
@@ -11376,11 +11376,11 @@
   </sheetPr>
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.29"/>
@@ -14909,7 +14909,7 @@
     <hyperlink ref="F14" r:id="rId24" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
     <hyperlink ref="C15" r:id="rId25" display="https://universaldependencies.org/"/>
     <hyperlink ref="F15" r:id="rId26" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
-    <hyperlink ref="C16" r:id="rId27" display="https://dumps.wikimedia.org/rowiki/20210401/"/>
+    <hyperlink ref="C16" r:id="rId27" display="https://github.com/dumitrescustefan/wiki-ro"/>
     <hyperlink ref="C17" r:id="rId28" display="https://github.com/LiroBenchmark/gender-bias "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14933,7 +14933,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.42"/>
@@ -18192,7 +18192,7 @@
       <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.8"/>

--- a/src/data/LEADERBOARD.xlsx
+++ b/src/data/LEADERBOARD.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="200">
   <si>
     <t xml:space="preserve">HELP FOR ADDING A NEW SYSTEM/PAPER TO THE LEADERBOARD</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t xml:space="preserve">MIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mit-license.org/</t>
   </si>
   <si>
     <t xml:space="preserve">RONEC-v1.0-site.md</t>
@@ -928,7 +931,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1047,7 +1050,7 @@
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.71"/>
@@ -5748,7 +5751,7 @@
       <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.98"/>
@@ -11064,7 +11067,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.28"/>
@@ -11377,10 +11380,10 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.29"/>
@@ -11426,7 +11429,7 @@
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>100</v>
       </c>
@@ -11442,11 +11445,14 @@
       <c r="E2" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>137</v>
+      </c>
       <c r="G2" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11457,22 +11463,22 @@
         <v>27</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11483,22 +11489,22 @@
         <v>33</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11509,22 +11515,22 @@
         <v>34</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11535,22 +11541,22 @@
         <v>23</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>83</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11561,22 +11567,22 @@
         <v>35</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11593,16 +11599,16 @@
         <v>86</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11613,22 +11619,22 @@
         <v>52</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>86</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11645,16 +11651,16 @@
         <v>88</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11662,7 +11668,7 @@
         <v>102</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>49</v>
@@ -11671,16 +11677,16 @@
         <v>91</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11691,22 +11697,22 @@
         <v>42</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11723,16 +11729,16 @@
         <v>86</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11743,22 +11749,22 @@
         <v>61</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11769,22 +11775,22 @@
         <v>65</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11795,22 +11801,22 @@
         <v>73</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>92</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11821,22 +11827,22 @@
         <v>75</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>93</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14884,33 +14890,35 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://github.com/dumitrescustefan/ronec"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://universaldependencies.org/"/>
-    <hyperlink ref="F3" r:id="rId3" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
-    <hyperlink ref="C4" r:id="rId4" display="https://universaldependencies.org/"/>
-    <hyperlink ref="F4" r:id="rId5" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
-    <hyperlink ref="C5" r:id="rId6" display="https://universaldependencies.org/"/>
-    <hyperlink ref="F5" r:id="rId7" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
-    <hyperlink ref="C6" r:id="rId8" display="https://universaldependencies.org/"/>
-    <hyperlink ref="F6" r:id="rId9" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
-    <hyperlink ref="C7" r:id="rId10" display="https://universaldependencies.org/"/>
-    <hyperlink ref="F7" r:id="rId11" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
-    <hyperlink ref="C8" r:id="rId12" display="https://github.com/ancatache/LaRoSeDa"/>
-    <hyperlink ref="F8" r:id="rId13" display="https://creativecommons.org/licenses/by-nc-sa/4.0/"/>
-    <hyperlink ref="C9" r:id="rId14" display="https://github.com/butnaruandrei/MOROCO"/>
-    <hyperlink ref="F9" r:id="rId15" display="https://creativecommons.org/licenses/by-nc-sa/4.0/"/>
-    <hyperlink ref="C10" r:id="rId16" display="https://github.com/dumitrescustefan/RO-STS"/>
-    <hyperlink ref="F10" r:id="rId17" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
-    <hyperlink ref="C11" r:id="rId18" display="https://github.com/dumitrescustefan/RO-STS"/>
-    <hyperlink ref="F11" r:id="rId19" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
-    <hyperlink ref="C12" r:id="rId20" location="download" display="https://www.statmt.org/wmt16/translation-task.html#download"/>
-    <hyperlink ref="C13" r:id="rId21" display="https://github.com/deepmind/xquad"/>
-    <hyperlink ref="F13" r:id="rId22" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
-    <hyperlink ref="C14" r:id="rId23" display="https://universaldependencies.org/"/>
-    <hyperlink ref="F14" r:id="rId24" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
-    <hyperlink ref="C15" r:id="rId25" display="https://universaldependencies.org/"/>
-    <hyperlink ref="F15" r:id="rId26" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
-    <hyperlink ref="C16" r:id="rId27" display="https://github.com/dumitrescustefan/wiki-ro"/>
-    <hyperlink ref="C17" r:id="rId28" display="https://github.com/LiroBenchmark/gender-bias "/>
+    <hyperlink ref="F2" r:id="rId2" display="https://mit-license.org/"/>
+    <hyperlink ref="C3" r:id="rId3" display="https://universaldependencies.org/"/>
+    <hyperlink ref="F3" r:id="rId4" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
+    <hyperlink ref="C4" r:id="rId5" display="https://universaldependencies.org/"/>
+    <hyperlink ref="F4" r:id="rId6" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
+    <hyperlink ref="C5" r:id="rId7" display="https://universaldependencies.org/"/>
+    <hyperlink ref="F5" r:id="rId8" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
+    <hyperlink ref="C6" r:id="rId9" display="https://universaldependencies.org/"/>
+    <hyperlink ref="F6" r:id="rId10" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
+    <hyperlink ref="C7" r:id="rId11" display="https://universaldependencies.org/"/>
+    <hyperlink ref="F7" r:id="rId12" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
+    <hyperlink ref="C8" r:id="rId13" display="https://github.com/ancatache/LaRoSeDa"/>
+    <hyperlink ref="F8" r:id="rId14" display="https://creativecommons.org/licenses/by-nc-sa/4.0/"/>
+    <hyperlink ref="C9" r:id="rId15" display="https://github.com/butnaruandrei/MOROCO"/>
+    <hyperlink ref="F9" r:id="rId16" display="https://creativecommons.org/licenses/by-nc-sa/4.0/"/>
+    <hyperlink ref="C10" r:id="rId17" display="https://github.com/dumitrescustefan/RO-STS"/>
+    <hyperlink ref="F10" r:id="rId18" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
+    <hyperlink ref="C11" r:id="rId19" display="https://github.com/dumitrescustefan/RO-STS"/>
+    <hyperlink ref="F11" r:id="rId20" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
+    <hyperlink ref="C12" r:id="rId21" location="download" display="https://www.statmt.org/wmt16/translation-task.html#download"/>
+    <hyperlink ref="C13" r:id="rId22" display="https://github.com/deepmind/xquad"/>
+    <hyperlink ref="F13" r:id="rId23" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
+    <hyperlink ref="C14" r:id="rId24" display="https://universaldependencies.org/"/>
+    <hyperlink ref="F14" r:id="rId25" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
+    <hyperlink ref="C15" r:id="rId26" display="https://universaldependencies.org/"/>
+    <hyperlink ref="F15" r:id="rId27" display="https://creativecommons.org/licenses/by-sa/4.0/"/>
+    <hyperlink ref="C16" r:id="rId28" display="https://github.com/dumitrescustefan/wiki-ro"/>
+    <hyperlink ref="F16" r:id="rId29" display="https://mit-license.org/"/>
+    <hyperlink ref="C17" r:id="rId30" display="https://github.com/LiroBenchmark/gender-bias "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14933,7 +14941,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.42"/>
@@ -14943,13 +14951,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>96</v>
@@ -14960,47 +14968,47 @@
         <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15008,13 +15016,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15022,13 +15030,13 @@
         <v>89</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15036,13 +15044,13 @@
         <v>88</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15050,13 +15058,13 @@
         <v>84</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15064,13 +15072,13 @@
         <v>85</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15078,13 +15086,13 @@
         <v>80</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15092,13 +15100,13 @@
         <v>81</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15106,27 +15114,27 @@
         <v>82</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15134,27 +15142,27 @@
         <v>83</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15162,13 +15170,13 @@
         <v>90</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15176,27 +15184,27 @@
         <v>91</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>193</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15204,13 +15212,13 @@
         <v>87</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15218,13 +15226,13 @@
         <v>93</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18192,7 +18200,7 @@
       <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.8"/>
@@ -18203,10 +18211,10 @@
         <v>95</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18225,7 +18233,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/data/LEADERBOARD.xlsx
+++ b/src/data/LEADERBOARD.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="202">
   <si>
     <t xml:space="preserve">HELP FOR ADDING A NEW SYSTEM/PAPER TO THE LEADERBOARD</t>
   </si>
@@ -533,6 +533,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/LiroBenchmark/gender-bias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC BY-NC 4.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://creativecommons.org/licenses/by-nc/4.0/</t>
   </si>
   <si>
     <t xml:space="preserve">romanian-word-embeddings.site.md</t>
@@ -931,7 +937,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1050,7 +1056,7 @@
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.71"/>
@@ -5751,7 +5757,7 @@
       <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.98"/>
@@ -11067,7 +11073,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.28"/>
@@ -11380,10 +11386,10 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.29"/>
@@ -11833,16 +11839,16 @@
         <v>93</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14919,6 +14925,7 @@
     <hyperlink ref="C16" r:id="rId28" display="https://github.com/dumitrescustefan/wiki-ro"/>
     <hyperlink ref="F16" r:id="rId29" display="https://mit-license.org/"/>
     <hyperlink ref="C17" r:id="rId30" display="https://github.com/LiroBenchmark/gender-bias "/>
+    <hyperlink ref="F17" r:id="rId31" display="https://creativecommons.org/licenses/by-nc/4.0/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14941,7 +14948,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.42"/>
@@ -14951,13 +14958,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>96</v>
@@ -14968,47 +14975,47 @@
         <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15016,13 +15023,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15030,13 +15037,13 @@
         <v>89</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15044,13 +15051,13 @@
         <v>88</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15058,13 +15065,13 @@
         <v>84</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15072,13 +15079,13 @@
         <v>85</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15086,13 +15093,13 @@
         <v>80</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15100,13 +15107,13 @@
         <v>81</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15114,27 +15121,27 @@
         <v>82</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15142,27 +15149,27 @@
         <v>83</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15170,13 +15177,13 @@
         <v>90</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15184,27 +15191,27 @@
         <v>91</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15212,13 +15219,13 @@
         <v>87</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15226,13 +15233,13 @@
         <v>93</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18200,7 +18207,7 @@
       <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.8"/>
@@ -18211,10 +18218,10 @@
         <v>95</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18233,7 +18240,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/data/LEADERBOARD.xlsx
+++ b/src/data/LEADERBOARD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\personal\liro\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\personal\liro-fork\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA922F78-3961-4A4D-9642-F432FC491EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF29F09A-AB33-4B73-B6DE-50CED935474E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help-ReadMeFirst" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="213">
   <si>
     <t>HELP FOR ADDING A NEW SYSTEM/PAPER TO THE LEADERBOARD</t>
   </si>
@@ -192,9 +192,6 @@
     <t>https://github.com/dumitrescustefan/RO-STS</t>
   </si>
   <si>
-    <t>RO-STS Baseline Romanian BERT v1 (uncased)</t>
-  </si>
-  <si>
     <t>RO-STS Baseline mBERT (uncased)</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>RONEC - Romanian Named Entity Corpus v1.0</t>
   </si>
   <si>
-    <t>Romanian BERT Baseline</t>
-  </si>
-  <si>
     <t>The birth of Romanian BERT</t>
   </si>
   <si>
@@ -264,9 +258,6 @@
     <t>Wiki-Ro</t>
   </si>
   <si>
-    <t>LiRo Baseline ro-Bert</t>
-  </si>
-  <si>
     <t>Romanian word embeddings</t>
   </si>
   <si>
@@ -315,9 +306,6 @@
     <t>Spearman Correlation</t>
   </si>
   <si>
-    <t>Exact Match F1</t>
-  </si>
-  <si>
     <t>BLEU</t>
   </si>
   <si>
@@ -658,13 +646,46 @@
   </si>
   <si>
     <t>Natural Language Processing</t>
+  </si>
+  <si>
+    <t>bert-base-romanian-cased-v1</t>
+  </si>
+  <si>
+    <t>bert-base-romanian-uncased-v1</t>
+  </si>
+  <si>
+    <t>Romanian Emotions Datasets v2 (REDv2)</t>
+  </si>
+  <si>
+    <t>https://github.com/Alegzandra/RED-Romanian-Emotions-Dataset</t>
+  </si>
+  <si>
+    <t>Hamming Loss</t>
+  </si>
+  <si>
+    <t>[0, 1]</t>
+  </si>
+  <si>
+    <t>For multi-label classification problems like REDv2</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>[0, INFINITY]</t>
+  </si>
+  <si>
+    <t>General purpose Mean Squared Error</t>
+  </si>
+  <si>
+    <t>dumitrescustefan/Romanian-Transformers: This repo is the home of Romanian Transformers. (github.com)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -726,6 +747,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -760,7 +793,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -786,6 +819,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1281,7 +1318,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1333,8 +1370,8 @@
       <c r="E2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
+      <c r="F2" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="G2" s="3">
         <v>5</v>
@@ -1712,7 +1749,7 @@
         <v>47</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>50</v>
+        <v>203</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>49</v>
@@ -1735,7 +1772,7 @@
         <v>47</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>49</v>
@@ -1755,16 +1792,16 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>32</v>
@@ -1778,19 +1815,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="C20" t="s">
         <v>57</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>32</v>
@@ -1804,16 +1841,16 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="C21" t="s">
         <v>62</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>63</v>
-      </c>
-      <c r="D21" t="s">
-        <v>64</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>32</v>
@@ -1827,16 +1864,16 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
         <v>62</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>63</v>
-      </c>
-      <c r="D22" t="s">
-        <v>64</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>32</v>
@@ -1850,16 +1887,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="D23" t="s">
         <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>69</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
@@ -1879,13 +1916,13 @@
         <v>42</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
         <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" t="s">
-        <v>72</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>32</v>
@@ -1899,16 +1936,16 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
         <v>63</v>
-      </c>
-      <c r="D25" t="s">
-        <v>64</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>32</v>
@@ -1922,19 +1959,19 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
         <v>63</v>
       </c>
-      <c r="D26" t="s">
-        <v>64</v>
-      </c>
       <c r="E26" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>32</v>
@@ -1947,9 +1984,18 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="8"/>
-      <c r="B27" s="12"/>
-      <c r="F27" s="8"/>
+      <c r="A27" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
@@ -5963,6 +6009,7 @@
     <hyperlink ref="D25" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
     <hyperlink ref="D26" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
     <hyperlink ref="E26" r:id="rId39" xr:uid="{2A7D20E5-2197-4AD7-8193-1F1BDE96EC46}"/>
+    <hyperlink ref="E27" r:id="rId40" display="https://github.com/dumitrescustefan/Romanian-Transformers" xr:uid="{17A5440C-2431-4AC5-985A-95784E369F4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5989,7 +6036,7 @@
   <dimension ref="A1:D997"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -6001,16 +6048,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -6021,7 +6068,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D2" s="3">
         <v>99.74</v>
@@ -6035,7 +6082,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D3" s="3">
         <v>95.56</v>
@@ -6049,7 +6096,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D4" s="3">
         <v>96.91</v>
@@ -6063,7 +6110,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D5" s="3">
         <v>97.42</v>
@@ -6077,7 +6124,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D6" s="3">
         <v>90.38</v>
@@ -6091,7 +6138,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D7" s="3">
         <v>85.23</v>
@@ -6105,7 +6152,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D8" s="3">
         <v>99.71</v>
@@ -6119,7 +6166,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D9" s="3">
         <v>95.42</v>
@@ -6133,7 +6180,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" s="3">
         <v>96.57</v>
@@ -6147,7 +6194,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3">
         <v>96.96</v>
@@ -6161,7 +6208,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" s="3">
         <v>90.14</v>
@@ -6175,7 +6222,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>85.06</v>
@@ -6189,7 +6236,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D14" s="3">
         <v>98.18</v>
@@ -6203,7 +6250,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D15" s="3">
         <v>72.7</v>
@@ -6217,7 +6264,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D16" s="3">
         <v>83.6</v>
@@ -6231,7 +6278,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D17" s="3">
         <v>59.9</v>
@@ -6245,7 +6292,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D18" s="3">
         <v>69.7</v>
@@ -6259,7 +6306,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D19">
         <v>0.6744</v>
@@ -6273,7 +6320,7 @@
         <v>47</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D20">
         <v>0.66620000000000001</v>
@@ -6281,13 +6328,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>50</v>
+        <v>203</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D21">
         <v>0.81589999999999996</v>
@@ -6295,13 +6342,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>50</v>
+        <v>203</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D22">
         <v>0.80859999999999999</v>
@@ -6309,13 +6356,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D23">
         <v>0.76900000000000002</v>
@@ -6323,13 +6370,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D24">
         <v>0.76500000000000001</v>
@@ -6337,13 +6384,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D25">
         <v>88.03</v>
@@ -6351,13 +6398,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D26">
         <v>54.3</v>
@@ -6365,13 +6412,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27">
         <v>95.73</v>
@@ -6379,13 +6426,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D28">
         <v>88.97</v>
@@ -6393,27 +6440,27 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="D29">
-        <v>85.88</v>
+        <v>88.15</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D30">
         <v>38.5</v>
@@ -6421,13 +6468,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D31">
         <v>28</v>
@@ -6435,94 +6482,103 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D32">
         <v>2.57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33">
+        <v>0.1038</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -11316,7 +11372,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -11328,245 +11384,247 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="5" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="11" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="12" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="13" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="14" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C14" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="15" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C15" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B13" s="10" t="s">
+    <row r="16" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="8"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="8"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8"/>
+    <row r="17" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+    </row>
+    <row r="18" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="22"/>
+    </row>
+    <row r="19" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="22"/>
+    </row>
+    <row r="20" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="22"/>
+    </row>
+    <row r="21" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="22"/>
+    </row>
+    <row r="22" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="22"/>
+    </row>
+    <row r="23" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="22"/>
+    </row>
+    <row r="24" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="22"/>
+    </row>
+    <row r="25" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="22"/>
+    </row>
+    <row r="26" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="22"/>
+    </row>
+    <row r="27" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="22"/>
+    </row>
+    <row r="28" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="22"/>
+    </row>
+    <row r="29" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="22"/>
+    </row>
+    <row r="30" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="22"/>
+    </row>
+    <row r="31" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="22"/>
+    </row>
+    <row r="32" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="22"/>
+    </row>
+    <row r="33" spans="1:1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="22"/>
+    </row>
+    <row r="34" spans="1:1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="22"/>
+    </row>
+    <row r="35" spans="1:1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="22"/>
+    </row>
+    <row r="36" spans="1:1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="22"/>
+    </row>
+    <row r="37" spans="1:1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="22"/>
+    </row>
+    <row r="38" spans="1:1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="22"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
@@ -11608,6 +11666,9 @@
       <c r="A51" s="8"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C16">
+    <sortCondition ref="A2:A16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
@@ -11632,8 +11693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -11650,31 +11711,31 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>135</v>
       </c>
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
@@ -11687,223 +11748,223 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="18" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>47</v>
@@ -11912,79 +11973,79 @@
         <v>49</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>37</v>
@@ -11993,135 +12054,151 @@
         <v>40</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C17" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" t="s">
         <v>167</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" t="s">
-        <v>170</v>
-      </c>
-      <c r="I17" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="A18" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -15185,6 +15262,8 @@
     <hyperlink ref="C17" r:id="rId30" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
     <hyperlink ref="F17" r:id="rId31" xr:uid="{00000000-0004-0000-0400-00001E000000}"/>
     <hyperlink ref="G17" r:id="rId32" xr:uid="{0960FD31-EB67-4DB5-9CE0-15EA9670F4D0}"/>
+    <hyperlink ref="C18" r:id="rId33" xr:uid="{D40EA6B2-3165-482B-8419-A53941311FDC}"/>
+    <hyperlink ref="F18" r:id="rId34" xr:uid="{4072F152-F7D5-4682-B895-3AD201680196}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -15220,7 +15299,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -15233,295 +15312,317 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D21" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="8"/>
+      <c r="A22" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="8"/>
+      <c r="A23" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" s="8"/>
@@ -18470,8 +18571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -18482,18 +18583,18 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -18501,13 +18602,13 @@
     </row>
     <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">

--- a/src/data/LEADERBOARD.xlsx
+++ b/src/data/LEADERBOARD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\personal\liro-fork\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF29F09A-AB33-4B73-B6DE-50CED935474E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0416A440-F035-4445-A58A-C78AB6B6BEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help-ReadMeFirst" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="212">
   <si>
     <t>HELP FOR ADDING A NEW SYSTEM/PAPER TO THE LEADERBOARD</t>
   </si>
@@ -235,9 +235,6 @@
   </si>
   <si>
     <t>UD Romanian RRT Treebank v2.8 - cross-domain Dependency Parsing</t>
-  </si>
-  <si>
-    <t>RONEC - Romanian Named Entity Corpus v1.0</t>
   </si>
   <si>
     <t>The birth of Romanian BERT</t>
@@ -1318,7 +1315,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1749,7 +1746,7 @@
         <v>47</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>49</v>
@@ -1887,16 +1884,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>66</v>
-      </c>
-      <c r="D23" t="s">
-        <v>67</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
@@ -1916,13 +1913,13 @@
         <v>42</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
         <v>68</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>69</v>
-      </c>
-      <c r="D24" t="s">
-        <v>70</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>32</v>
@@ -1936,10 +1933,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C25" t="s">
         <v>62</v>
@@ -1959,10 +1956,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="C26" t="s">
         <v>62</v>
@@ -1971,7 +1968,7 @@
         <v>63</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>32</v>
@@ -1985,13 +1982,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>32</v>
@@ -6048,16 +6045,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -6068,7 +6065,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3">
         <v>99.74</v>
@@ -6082,7 +6079,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3">
         <v>95.56</v>
@@ -6096,7 +6093,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="3">
         <v>96.91</v>
@@ -6110,7 +6107,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="3">
         <v>97.42</v>
@@ -6124,7 +6121,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="3">
         <v>90.38</v>
@@ -6138,7 +6135,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="3">
         <v>85.23</v>
@@ -6152,7 +6149,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="3">
         <v>99.71</v>
@@ -6166,7 +6163,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="3">
         <v>95.42</v>
@@ -6180,7 +6177,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3">
         <v>96.57</v>
@@ -6194,7 +6191,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="3">
         <v>96.96</v>
@@ -6208,7 +6205,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>90.14</v>
@@ -6222,7 +6219,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3">
         <v>85.06</v>
@@ -6236,7 +6233,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="3">
         <v>98.18</v>
@@ -6250,7 +6247,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="3">
         <v>72.7</v>
@@ -6264,7 +6261,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" s="3">
         <v>83.6</v>
@@ -6278,7 +6275,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" s="3">
         <v>59.9</v>
@@ -6292,7 +6289,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="3">
         <v>69.7</v>
@@ -6306,7 +6303,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19">
         <v>0.6744</v>
@@ -6320,7 +6317,7 @@
         <v>47</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20">
         <v>0.66620000000000001</v>
@@ -6328,13 +6325,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21">
         <v>0.81589999999999996</v>
@@ -6342,13 +6339,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22">
         <v>0.80859999999999999</v>
@@ -6362,7 +6359,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23">
         <v>0.76900000000000002</v>
@@ -6376,7 +6373,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24">
         <v>0.76500000000000001</v>
@@ -6390,7 +6387,7 @@
         <v>51</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25">
         <v>88.03</v>
@@ -6404,7 +6401,7 @@
         <v>55</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26">
         <v>54.3</v>
@@ -6418,7 +6415,7 @@
         <v>60</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27">
         <v>95.73</v>
@@ -6432,7 +6429,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28">
         <v>88.97</v>
@@ -6440,13 +6437,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="D29">
         <v>88.15</v>
@@ -6454,13 +6451,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30">
         <v>38.5</v>
@@ -6468,13 +6465,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31">
         <v>28</v>
@@ -6482,13 +6479,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D32">
         <v>2.57</v>
@@ -6496,13 +6493,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="C33" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D33">
         <v>0.1038</v>
@@ -11384,178 +11381,178 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
         <v>121</v>
-      </c>
-      <c r="C16" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
@@ -11693,7 +11690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -11711,31 +11708,31 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>130</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>131</v>
       </c>
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
@@ -11748,169 +11745,169 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="19" t="s">
         <v>133</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>134</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>199</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>55</v>
@@ -11919,52 +11916,52 @@
         <v>59</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>141</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" s="18" t="s">
         <v>142</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>141</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>47</v>
@@ -11973,79 +11970,79 @@
         <v>49</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="F12" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>154</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>37</v>
@@ -12054,150 +12051,150 @@
         <v>40</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" t="s">
         <v>156</v>
-      </c>
-      <c r="I13" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="18" t="s">
         <v>158</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="18" t="s">
         <v>158</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" t="s">
         <v>161</v>
-      </c>
-      <c r="I16" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="G17" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" t="s">
         <v>165</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>166</v>
-      </c>
-      <c r="I17" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="D18" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>206</v>
-      </c>
       <c r="E18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -15312,316 +15309,316 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="15" t="s">
         <v>172</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>180</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>180</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" s="23" t="s">
+      <c r="D22" s="23" t="s">
         <v>207</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C23" s="23" t="s">
+      <c r="D23" s="23" t="s">
         <v>210</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -18571,7 +18568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -18583,18 +18580,18 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -18602,13 +18599,13 @@
     </row>
     <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">

--- a/src/data/LEADERBOARD.xlsx
+++ b/src/data/LEADERBOARD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\personal\liro-fork\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0416A440-F035-4445-A58A-C78AB6B6BEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D39EF9-150E-460C-87CC-95ABC11012A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help-ReadMeFirst" sheetId="1" r:id="rId1"/>
@@ -1314,17 +1314,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="49.1328125" customWidth="1"/>
     <col min="2" max="2" width="34.73046875" customWidth="1"/>
-    <col min="3" max="3" width="42.73046875" customWidth="1"/>
-    <col min="4" max="4" width="34.73046875" customWidth="1"/>
-    <col min="5" max="5" width="20.86328125" customWidth="1"/>
+    <col min="3" max="3" width="25.46484375" customWidth="1"/>
+    <col min="4" max="4" width="20.46484375" customWidth="1"/>
+    <col min="5" max="5" width="17.1328125" customWidth="1"/>
     <col min="8" max="8" width="12.73046875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1907,6 +1907,9 @@
       <c r="H23">
         <v>2020</v>
       </c>
+      <c r="I23">
+        <v>124</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
@@ -1953,6 +1956,9 @@
       <c r="H25">
         <v>2021</v>
       </c>
+      <c r="I25">
+        <v>124</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
@@ -1992,6 +1998,15 @@
       </c>
       <c r="F27" s="23" t="s">
         <v>32</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>2022</v>
+      </c>
+      <c r="I27">
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -11690,7 +11705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/src/data/LEADERBOARD.xlsx
+++ b/src/data/LEADERBOARD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\personal\liro-fork\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D39EF9-150E-460C-87CC-95ABC11012A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5320ED5-5803-4903-B5D4-40EBD77BBD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="214">
   <si>
     <t>HELP FOR ADDING A NEW SYSTEM/PAPER TO THE LEADERBOARD</t>
   </si>
@@ -675,7 +675,13 @@
     <t>General purpose Mean Squared Error</t>
   </si>
   <si>
-    <t>dumitrescustefan/Romanian-Transformers: This repo is the home of Romanian Transformers. (github.com)</t>
+    <t>http://www.lrec-conf.org/proceedings/lrec2022/pdf/2022.lrec-1.149.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Alegzandra/RED-Romanian-Emotions-Dataset/tree/main/REDv2</t>
+  </si>
+  <si>
+    <t>RED v2: Enhancing RED Dataset for Multi-Label Emotion Detection</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1321,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1689,7 +1695,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>42</v>
       </c>
@@ -1993,8 +1999,14 @@
       <c r="B27" s="14" t="s">
         <v>202</v>
       </c>
+      <c r="C27" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>211</v>
+      </c>
       <c r="E27" s="19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>32</v>
@@ -6021,7 +6033,8 @@
     <hyperlink ref="D25" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
     <hyperlink ref="D26" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
     <hyperlink ref="E26" r:id="rId39" xr:uid="{2A7D20E5-2197-4AD7-8193-1F1BDE96EC46}"/>
-    <hyperlink ref="E27" r:id="rId40" display="https://github.com/dumitrescustefan/Romanian-Transformers" xr:uid="{17A5440C-2431-4AC5-985A-95784E369F4B}"/>
+    <hyperlink ref="E27" r:id="rId40" xr:uid="{17A5440C-2431-4AC5-985A-95784E369F4B}"/>
+    <hyperlink ref="D27" r:id="rId41" xr:uid="{187F2126-33BE-4674-ADA8-668E6EACA0A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
